--- a/outputs/ML_Results/dist_LR/Dresden.xlsx
+++ b/outputs/ML_Results/dist_LR/Dresden.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ52492748" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ52608488" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ52728575" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52853092" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ52969605" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ53089124" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ53208647" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ53324673" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ53447187" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ53568697" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ53686736" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ53809122" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ53928820" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ54049896" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ54169982" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ54285837" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ54404354" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ54524382" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ54650395" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ54766906" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ54887660" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ55006826" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ55126536" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ55245197" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ55366708" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ55484220" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ55602739" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ55722794" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ55844439" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ55967165" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ56089194" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ56208707" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ56328245" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ56448498" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ56573531" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ56722568" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ56849081" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ56970643" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ57089673" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ57208192" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ57326729" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ57446764" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ57565795" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ57684048" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ57805382" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ57927711" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ58049745" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ58171780" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ58291292" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ58410815" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ13639313" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13751513" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13869856" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ14003585" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ14155952" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14311264" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14462268" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14607333" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14762725" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ14915811" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ15081533" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ15237676" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ15393251" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ15547890" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ15696118" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ15862083" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ16014375" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ16343386" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ16521057" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ16676597" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ16828106" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ16978563" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ17129951" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ17278527" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ17431435" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ17680499" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ17832236" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ17982780" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ18226063" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ18379691" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ18532838" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ18684943" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ18845886" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ18998884" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ19173936" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ19337116" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ19497343" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ19653345" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ19801564" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ19961172" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ20162396" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ20321977" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ20460200" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ20607650" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ20762193" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ20922147" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ21063828" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ21208705" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ21358480" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ21492925" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Dresden.xlsx
+++ b/outputs/ML_Results/dist_LR/Dresden.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13639313" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13751513" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13869856" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ14003585" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14155952" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14311264" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14462268" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14607333" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14762725" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ14915811" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ15081533" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ15237676" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ15393251" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ15547890" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ15696118" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ15862083" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ16014375" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ16343386" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ16521057" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ16676597" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ16828106" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ16978563" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ17129951" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ17278527" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ17431435" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ17680499" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ17832236" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ17982780" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ18226063" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ18379691" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ18532838" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ18684943" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ18845886" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ18998884" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ19173936" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ19337116" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ19497343" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ19653345" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ19801564" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ19961172" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ20162396" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ20321977" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ20460200" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ20607650" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ20762193" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ20922147" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ21063828" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ21208705" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ21358480" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ21492925" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ58117975" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ58217419" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58313553" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ58406558" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58501887" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ58596398" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ58691921" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ58783432" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ58876658" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ58975918" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ59069429" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ59161937" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ59258452" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ59351963" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ59444765" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ59539277" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ59632788" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ59729304" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ59823335" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ59917002" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ00015249" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ00135450" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ00229960" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ00325475" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ00420246" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ00596955" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ00694900" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ00788409" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ00881921" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ00979433" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ01074148" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ01169177" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ01262688" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ01359201" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ01492336" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ01585851" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ01682666" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ01779179" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ01875692" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ01973201" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ02071719" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ02173238" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ02266651" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ02362162" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ02456670" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ02569267" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ02696991" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ02798281" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ02901712" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ03044009" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.075655765682</v>
+        <v>759.3810941781867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5366323260838943</v>
+        <v>0.7121727186462798</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.69264177557315</v>
+        <v>92.56379984007037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3827547819760296</v>
+        <v>0.2276909815520471</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.43458104786689</v>
+        <v>108.4720852547311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2086330425006558</v>
+        <v>0.1332648680825592</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04125347406528745</v>
+        <v>0.01489959020889708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7023572710063022</v>
+        <v>0.8753504100412509</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.418559158798257e-05</v>
+        <v>-3.708967821607393e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7420154335479625</v>
+        <v>0.7738048431480835</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.82327873202058</v>
+        <v>-19.03946719648579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6662279899508053</v>
+        <v>0.5879670531344274</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.625879481719494</v>
+        <v>-2.102101208612837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7385414236803325</v>
+        <v>0.8364792983832557</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-401.8835950541902</v>
+        <v>-210.264566202718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.875925791200539</v>
+        <v>0.9320643681327687</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1300.333556869158</v>
+        <v>-369.7714706285706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6079444992421345</v>
+        <v>0.8475333293527108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-720.5352281485029</v>
+        <v>10221.65300514808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5498766304033034</v>
+        <v>0.02055006372380631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10363.57340544815</v>
+        <v>46.75631786024585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02461671587153169</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>39.36227206573317</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06353256364738745</v>
+        <v>0.007076203776902386</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1824.224730033352</v>
+        <v>901.4062634156026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5216695314914399</v>
+        <v>0.7374661697363434</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.01936566394539</v>
+        <v>62.92389943664919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6906130156108468</v>
+        <v>0.5003995766502842</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.46104077835361</v>
+        <v>109.3509068959676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2705866645475084</v>
+        <v>0.2002414248024972</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03416741155444986</v>
+        <v>-0.002261115495537369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7623614391114392</v>
+        <v>0.9832192042261614</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001104716810635302</v>
+        <v>-0.0001481620502635225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4358478031829901</v>
+        <v>0.2861801113171564</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.55132307876278</v>
+        <v>21.81294779143977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5378831752940315</v>
+        <v>0.6228277505572797</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.564072985520479</v>
+        <v>8.72897628865077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5944716014486602</v>
+        <v>0.476111289269218</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3389.501254854866</v>
+        <v>-2768.650592724694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2133545758113817</v>
+        <v>0.291214072248612</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5011.388269524254</v>
+        <v>-3659.954443744005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1239624490905552</v>
+        <v>0.204805055118631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1464.98508075906</v>
+        <v>7187.0142458755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3126948885287155</v>
+        <v>0.06967745392866423</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7699.124045342038</v>
+        <v>34.04043182762229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05748429399177197</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.04530456541306</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1734562788656385</v>
+        <v>0.05941054206848027</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1944.778239271314</v>
+        <v>997.1053966120453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5514172445060013</v>
+        <v>0.7164974218891065</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.47721697781063</v>
+        <v>89.96596064473596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5656957198084813</v>
+        <v>0.3392522244361336</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.9811010666722</v>
+        <v>115.6078460172979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3130580738260325</v>
+        <v>0.2217969458990183</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09897226785901048</v>
+        <v>0.06311473033823911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5294004571096306</v>
+        <v>0.651834531737626</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000151935449167913</v>
+        <v>-0.0001663215296141344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3617046462356379</v>
+        <v>0.2983150438038701</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.57554636021689</v>
+        <v>-9.423100148333589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8429228789746201</v>
+        <v>0.8400761173936561</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.648450856969163</v>
+        <v>4.019505756643596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9073066655852944</v>
+        <v>0.760390112707489</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1281.705296871615</v>
+        <v>1539.941292040548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6764100396064492</v>
+        <v>0.6010589697258907</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2191.979754853206</v>
+        <v>-1346.588862573099</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4716834701400854</v>
+        <v>0.6027902366430306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-916.8522641591626</v>
+        <v>4671.240397877675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5470850692236626</v>
+        <v>0.2515148518738458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5156.327265982636</v>
+        <v>39.40450650205028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2333275884763572</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.89628547173007</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1342353316809514</v>
+        <v>0.02342523493298341</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>638.642930186159</v>
+        <v>-903.0334629839735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7855872487108446</v>
+        <v>0.7092992693154765</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.2819048246904</v>
+        <v>169.7823006206072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1292926651725648</v>
+        <v>0.04524204750318855</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.0779950846668</v>
+        <v>138.2955909751302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08435988339197807</v>
+        <v>0.08091049299464254</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02116012749622687</v>
+        <v>-0.05751675662873201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8212935897432012</v>
+        <v>0.5334698221348485</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.280906078974091e-05</v>
+        <v>-4.27343747359731e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.791581580018853</v>
+        <v>0.6534736580876996</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.28588198731555</v>
+        <v>39.94876149625981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2223871931132952</v>
+        <v>0.3211408692226749</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.78215223676402</v>
+        <v>16.57526470657211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2214037496908783</v>
+        <v>0.1128239616789119</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2576.127942987587</v>
+        <v>-1514.973443602656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2354129432946237</v>
+        <v>0.4987526924400272</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5776.068832810522</v>
+        <v>-3717.162661788727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02762304769882331</v>
+        <v>0.1077749658041178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1755.076609653401</v>
+        <v>8222.132557676778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1000544015668576</v>
+        <v>0.01962721354308652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9394.391697606392</v>
+        <v>14.34731153846796</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007541417820364949</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.892122546265938</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7920498225226948</v>
+        <v>0.3493756233143488</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1867.861006237128</v>
+        <v>2172.174506642173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5921263660089011</v>
+        <v>0.3635228949808286</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.094936635876</v>
+        <v>164.3119205194369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4213909052093572</v>
+        <v>0.3491967513438737</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.033997558323</v>
+        <v>134.4006495954028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3835778180321733</v>
+        <v>0.3221772326188845</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005864861091292917</v>
+        <v>0.00403291869680622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9634649487578488</v>
+        <v>0.9664434001390259</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.599093828192403e-05</v>
+        <v>7.796443709349803e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5866171836184461</v>
+        <v>0.570442229285696</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-52.49823209666235</v>
+        <v>-52.89869966417248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3093690677055915</v>
+        <v>0.2812524784379269</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.350807120747477</v>
+        <v>-2.907605044161022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8430198853824673</v>
+        <v>0.7815392561480563</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.6998281795168</v>
+        <v>542.969972304114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7763197197557493</v>
+        <v>0.7857878955711266</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3092.127996711881</v>
+        <v>2849.775086074376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4334864347789598</v>
+        <v>0.382769708466941</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.481228878707</v>
+        <v>2495.752352977037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9004437681467667</v>
+        <v>0.4902102277569159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2259.23417107272</v>
+        <v>33.31378684578029</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5938428057700708</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34.72192857840001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08363735134876568</v>
+        <v>0.03333582854745416</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1147.118375326012</v>
+        <v>550.5730450247765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7434795650168351</v>
+        <v>0.848751219529421</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.79184997751213</v>
+        <v>47.90063929989765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7179924904610255</v>
+        <v>0.5889807358839156</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.4722964905863</v>
+        <v>136.0316907596773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2065775671582538</v>
+        <v>0.1593635335702203</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01724314423832568</v>
+        <v>0.003496332105250188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8950783485192932</v>
+        <v>0.9765249227763939</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.975933629232808e-05</v>
+        <v>-1.789366457504224e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8335070817625312</v>
+        <v>0.8914511777403747</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.78448035194376</v>
+        <v>-18.09533929481799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8392081352296775</v>
+        <v>0.7312946441270096</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2979766162660731</v>
+        <v>1.343582104015951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.984308030218646</v>
+        <v>0.9245847469224617</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-783.9310491202341</v>
+        <v>-612.3929216247088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7727578705146225</v>
+        <v>0.8101785692810032</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-743.2725531993783</v>
+        <v>63.06449974346879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8302373734563639</v>
+        <v>0.9789946259022212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-594.3304317007369</v>
+        <v>6327.559622140601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7368768620672591</v>
+        <v>0.1187137604062442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6518.13161908654</v>
+        <v>51.76140103143572</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1288414852362006</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>44.62738208852799</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1173098108357941</v>
+        <v>0.005905782027567857</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3934.54881780193</v>
+        <v>2702.387748421497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2061878230387098</v>
+        <v>0.2972203851915343</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.770640800611261</v>
+        <v>40.78764660869095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9702770612459746</v>
+        <v>0.6477743697135672</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.52813654792186</v>
+        <v>53.27120224253483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.610423391381631</v>
+        <v>0.5011839257166316</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04190535649558813</v>
+        <v>-0.08049868500750024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7355588856386428</v>
+        <v>0.4788180059420504</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.954973896752323e-05</v>
+        <v>-8.872199189099725e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5378498343066593</v>
+        <v>0.5345832735421363</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.4921157057189</v>
+        <v>-20.71309834351396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6367639628325734</v>
+        <v>0.609827174333561</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.191259787160533</v>
+        <v>-2.906605606532182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6211171423787357</v>
+        <v>0.8020475176528454</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-957.6673377162224</v>
+        <v>-618.3493039802506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7122797268328013</v>
+        <v>0.8058130125600184</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-710.1208811622482</v>
+        <v>364.6267469179438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7845897256398129</v>
+        <v>0.8679874924808053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1011.78180539022</v>
+        <v>4826.969303038932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4250505659496805</v>
+        <v>0.4152506690293607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5205.393072041792</v>
+        <v>44.0430063458174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3906406518735519</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34.85143985875195</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09259760778788209</v>
+        <v>0.01317817997760626</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2565.727575090992</v>
+        <v>1712.484336701444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4086131777849999</v>
+        <v>0.531021053495105</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.43932712059598</v>
+        <v>76.7800285886492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6068143893158985</v>
+        <v>0.372735458300167</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.71497286402388</v>
+        <v>75.84140440571721</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4747975627757184</v>
+        <v>0.4002042727963137</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06512295088720776</v>
+        <v>0.02624562485672244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6498553360502655</v>
+        <v>0.8370145794855051</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001128556298571314</v>
+        <v>-0.0001133706743913869</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4174681767683245</v>
+        <v>0.4018058875333315</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.56502600061167</v>
+        <v>-23.32423164446112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6582792076436929</v>
+        <v>0.6050349055882143</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.2466955007298</v>
+        <v>-2.513322052446341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7551932113560006</v>
+        <v>0.8466041145033834</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-58.83871511929647</v>
+        <v>180.7131450778334</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9850315454457681</v>
+        <v>0.9524571503559057</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1181.972629034693</v>
+        <v>-128.3916767623132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6730901013542618</v>
+        <v>0.9549011436441562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-898.4778871055814</v>
+        <v>8082.242046034142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4946835291755719</v>
+        <v>0.07370293598557386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8366.591044743618</v>
+        <v>44.82826687870445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07572269409506094</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>37.01100146148788</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06144037201979101</v>
+        <v>0.006435168205942629</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3305.486481956515</v>
+        <v>1613.966128685808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.405463654205515</v>
+        <v>0.5734567298933785</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-56.4051601855646</v>
+        <v>-41.06381691933868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7295735824772467</v>
+        <v>0.7928613886146634</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.96721894315135</v>
+        <v>3.118704522728876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8966456206833207</v>
+        <v>0.9809291342238931</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04595581794576886</v>
+        <v>-0.0008919743699148386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.749658328838156</v>
+        <v>0.9941219467081976</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001269040106589239</v>
+        <v>-0.0001156395499331771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4038816596387703</v>
+        <v>0.4280764019303357</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.55058290458436</v>
+        <v>-42.83451201117197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4204152164209044</v>
+        <v>0.4027277245741033</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8087224398064876</v>
+        <v>3.281059931272054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.955152847357835</v>
+        <v>0.7946809869816654</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189.1743749961079</v>
+        <v>297.6591551606525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9468271187065369</v>
+        <v>0.9137183449638167</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.872638957906</v>
+        <v>2148.37613001872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8505737133344872</v>
+        <v>0.5078565068875618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1371.090459300663</v>
+        <v>5746.632177687618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5144956842426094</v>
+        <v>0.1995396392243584</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6249.157618772999</v>
+        <v>54.10290743979969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1859700906701562</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>38.98519143256476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2267165320258776</v>
+        <v>0.02015028377237333</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1796.800006658968</v>
+        <v>174.3974513064795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5954597744203491</v>
+        <v>0.9437500397834691</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.02004127075776</v>
+        <v>118.8971754448623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5980020517666336</v>
+        <v>0.2147720207278357</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.13189323756441</v>
+        <v>87.35355856503159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3908420465370633</v>
+        <v>0.2850044505747535</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0001305185482129989</v>
+        <v>-0.06515274111382574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993108533495783</v>
+        <v>0.5886142194473634</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.839403401979701e-05</v>
+        <v>-7.038644574434635e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6370688151803455</v>
+        <v>0.6194429625805873</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.748720384357</v>
+        <v>27.70366753511722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6041245937748226</v>
+        <v>0.551907881592371</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.234287298905627</v>
+        <v>11.7458172848504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6685073528804085</v>
+        <v>0.3425173086311262</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3137.736552570026</v>
+        <v>-2288.161529785114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3253189012297683</v>
+        <v>0.4245018724048386</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4640.695976450997</v>
+        <v>-3480.421809336103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1745437694412008</v>
+        <v>0.2268888456586559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1105.719441542467</v>
+        <v>6378.883307020275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4695681406559632</v>
+        <v>0.1263722734921331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7414.930308457055</v>
+        <v>36.52360050932388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1057320925530992</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.98346445530776</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1647752302454525</v>
+        <v>0.02868809850670477</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4571.728705892572</v>
+        <v>4385.014812790731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1443051024737122</v>
+        <v>0.05983231728816178</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.92918897513715</v>
+        <v>29.32312002432937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7973738579394015</v>
+        <v>0.6806890458031893</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.62222185259088</v>
+        <v>79.48915368280223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2813341155580936</v>
+        <v>0.1977436944950422</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09052381134701226</v>
+        <v>-0.09562401102500467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3632738145642197</v>
+        <v>0.2360960894656885</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.750777160491754e-05</v>
+        <v>-2.500899788472177e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.780951556242538</v>
+        <v>0.783133510032058</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.47341944769494</v>
+        <v>-43.84563843668199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1952758558878495</v>
+        <v>0.167430297309756</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.883606619853367</v>
+        <v>-9.328529141393361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398246897438969</v>
+        <v>0.3354321650920967</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249.2134459982699</v>
+        <v>290.1398191402914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8896952058514731</v>
+        <v>0.8614723639937473</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2295.343215085531</v>
+        <v>2483.032341291994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4002491907047984</v>
+        <v>0.1771922689665734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-124.8612181262133</v>
+        <v>-34.78316843956054</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9227993172427156</v>
+        <v>0.9911892150924922</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51.09810372083302</v>
+        <v>34.81537467646757</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9881000362513668</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.69009702635553</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05267747858945195</v>
+        <v>0.004711552479557357</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3605.683585817826</v>
+        <v>2718.827065898873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2296174981504205</v>
+        <v>0.2816157111909038</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.95531547739918</v>
+        <v>52.67345069572821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8994455013335746</v>
+        <v>0.5610871157749886</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.45712600894194</v>
+        <v>67.34795743418772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5384936366044274</v>
+        <v>0.4004033340869373</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03028221769834183</v>
+        <v>-0.008742585577904638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.800383130348965</v>
+        <v>0.9303167053063046</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.785900811019429e-06</v>
+        <v>1.335428871699945e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9565692520288624</v>
+        <v>0.9116574410951261</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.3237516536538</v>
+        <v>-35.5663305953012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5470846009955517</v>
+        <v>0.4779842491006124</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.412293614686746</v>
+        <v>1.51635106599845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9716441311746535</v>
+        <v>0.8915470653199085</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2423.587136427892</v>
+        <v>-1923.216694858243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.357318028898338</v>
+        <v>0.4253728253974267</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-366.1618423599648</v>
+        <v>931.6221373833105</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9218898416680297</v>
+        <v>0.7605222710373729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-852.4817172013936</v>
+        <v>4775.36585602753</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5231950624941026</v>
+        <v>0.2120446361290906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5432.131734517183</v>
+        <v>29.0488513679474</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1883895546825287</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.74253024486842</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3378433755093037</v>
+        <v>0.0953268719605998</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.4066748516325</v>
+        <v>-1645.680451425766</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9689828890482398</v>
+        <v>0.5849977866972393</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.8254645676632</v>
+        <v>160.6575009021774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2855214259528611</v>
+        <v>0.126375885801607</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.6291940160603</v>
+        <v>184.2688574659715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1117929891954587</v>
+        <v>0.07766180290787712</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02478142507231854</v>
+        <v>-0.04693874836308931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8278647307047783</v>
+        <v>0.6870511541327361</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.085531513312596e-05</v>
+        <v>-0.0001061032139135227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8124275866779003</v>
+        <v>0.4348133441764881</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.65206182878549</v>
+        <v>33.92793423319353</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5084680701833154</v>
+        <v>0.5524990649338555</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.483787344710862</v>
+        <v>12.19059591187183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4296700446604662</v>
+        <v>0.2940909105583942</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-686.2240798520033</v>
+        <v>137.6398406628878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.725496867572309</v>
+        <v>0.9469002273325791</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4257.137445589688</v>
+        <v>-2547.91870055335</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1611479826927829</v>
+        <v>0.3983614934237243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2266.244371432941</v>
+        <v>6737.70770567178</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1035711754875456</v>
+        <v>0.09602641212114509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7016.197625379423</v>
+        <v>39.06390053955138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06477348606481106</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.0042022944273</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1122590999706226</v>
+        <v>0.01286185080038738</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.2896810544498</v>
+        <v>-884.0975893372342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9157067385095925</v>
+        <v>0.8119868181992498</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.06605442298331</v>
+        <v>118.064851170048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5328732031017097</v>
+        <v>0.3194612809114866</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0419899239181</v>
+        <v>151.0811335131834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2399113212318748</v>
+        <v>0.208468952275031</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003554328171231191</v>
+        <v>-0.04514369369064458</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9834663917966555</v>
+        <v>0.7963878166633815</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001454243163298369</v>
+        <v>-0.0001720288267850128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4125787795134256</v>
+        <v>0.3505971760066664</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.77382767238822</v>
+        <v>23.02905057245431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6403944689587544</v>
+        <v>0.7574344951038422</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.089005609380148</v>
+        <v>11.44465281707917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5196277978299921</v>
+        <v>0.4345408395158695</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>443.1187407417021</v>
+        <v>1549.646682278983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8809813448710209</v>
+        <v>0.6031333796791276</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3933.705125211949</v>
+        <v>-1861.527519863448</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3021178888217787</v>
+        <v>0.5973698507487801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1899.78109681788</v>
+        <v>3988.623745582332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1999273315783317</v>
+        <v>0.3590132473426982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4694.907783313825</v>
+        <v>46.94660969505163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2710716390594295</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.60175933934759</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07360391762227023</v>
+        <v>0.01614601691948316</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581.938369326333</v>
+        <v>292.9597182810476</v>
       </c>
       <c r="C2" t="n">
-        <v>0.575427343780355</v>
+        <v>0.8869301801756297</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.4895149651621</v>
+        <v>74.65300408473939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4307689754664565</v>
+        <v>0.282151353743531</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.9176940918731</v>
+        <v>146.0394719300015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1866342498583476</v>
+        <v>0.06672814805447375</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.102340681960152</v>
+        <v>0.07243762820323907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2887783536323115</v>
+        <v>0.3800583181685889</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.827446428700939e-05</v>
+        <v>-7.40123957286748e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.429221125810518</v>
+        <v>0.4858746540859467</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.60481315206539</v>
+        <v>10.96720246271909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6755041142074598</v>
+        <v>0.771063242126022</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.344486644700702</v>
+        <v>6.254777751155544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6413938649470194</v>
+        <v>0.4742737813219131</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2328.673835346766</v>
+        <v>-2251.493444533127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3359307105170683</v>
+        <v>0.3371243859995215</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4874.809955541021</v>
+        <v>-3544.59323334371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1325483976976894</v>
+        <v>0.1459463331416209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1034.784780439079</v>
+        <v>8975.44885527489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4877959345053051</v>
+        <v>0.01588761797571381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9096.313066344923</v>
+        <v>35.44308389270968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01871253890297438</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.04739663972141</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3502366893628318</v>
+        <v>0.01608496877884786</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1931.661196244308</v>
+        <v>1928.327855994376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4553442257964104</v>
+        <v>0.2810704713847538</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.0626573425407</v>
+        <v>101.1653343349024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2346029210490295</v>
+        <v>0.1018931608942651</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.14315678198953</v>
+        <v>84.20415994481147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2342414168522814</v>
+        <v>0.1587582877409949</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06249824991138181</v>
+        <v>-0.06263860837092683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5596541862801542</v>
+        <v>0.3905592658748741</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.478740857543267e-06</v>
+        <v>2.515054242058462e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9771155158512399</v>
+        <v>0.9749561114859211</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-36.37617717164679</v>
+        <v>-36.36655453673889</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284781608276889</v>
+        <v>0.2554954189141061</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.678037241821499</v>
+        <v>-5.668540038971486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5723882349965804</v>
+        <v>0.4929405131702637</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1924.402431330036</v>
+        <v>-1923.966868710035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3190199796375711</v>
+        <v>0.2914769999093466</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2394.090266674648</v>
+        <v>2396.64584459051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2917879107445071</v>
+        <v>0.1654576172446484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.681731029394086</v>
+        <v>8894.806965187854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9985030611063163</v>
+        <v>0.005309519704302957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8896.695990412889</v>
+        <v>44.91062601837272</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01120438901574402</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>44.892479900979</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.006998275294181911</v>
+        <v>0.0003784907489174874</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3265.268113129301</v>
+        <v>1637.239176667902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.398334857839425</v>
+        <v>0.6050679524531416</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.18650862197168</v>
+        <v>98.13154656502013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6644209113379731</v>
+        <v>0.3515423962622723</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.83335912178808</v>
+        <v>83.87777910477618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4664643169908372</v>
+        <v>0.3830903943643086</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04872930411812071</v>
+        <v>-0.001661744614397831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7454307831496751</v>
+        <v>0.9900615770891581</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.609809213964276e-05</v>
+        <v>-5.758612094415941e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7866272121170446</v>
+        <v>0.7300788818656732</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.83715170289656</v>
+        <v>-18.81990392286809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7041746277757853</v>
+        <v>0.6994207137081936</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.961350597463507</v>
+        <v>-0.05688076358263316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7623889266309271</v>
+        <v>0.9974667324084127</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-641.914793693255</v>
+        <v>-14.89265987138606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.82330474271152</v>
+        <v>0.9956217931538285</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1372.854596001047</v>
+        <v>-117.2763294826464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6553655080831527</v>
+        <v>0.9637541989601232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1240.023443381321</v>
+        <v>5210.948091001468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4316260066470079</v>
+        <v>0.2558480869803402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6487.652701665304</v>
+        <v>40.20800463553442</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1958553496743289</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.03911224851269</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2422670180342265</v>
+        <v>0.05453983149351499</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5155.852369049322</v>
+        <v>3678.259934957183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1083504452182484</v>
+        <v>0.1680707678030005</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-157.4464145606228</v>
+        <v>-129.7523827898784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2917293001812449</v>
+        <v>0.368024265578021</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-48.5226118725584</v>
+        <v>-37.18978154467209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6734811681349158</v>
+        <v>0.7437040286007549</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06750079283777277</v>
+        <v>-0.1148110801500376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5645933532073124</v>
+        <v>0.2846785593063858</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001948300146871195</v>
+        <v>-0.0001970413770812811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1452638778172878</v>
+        <v>0.1375050723144301</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-29.84164285939144</v>
+        <v>-32.53469074570739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4515845788253658</v>
+        <v>0.4089896179720125</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.299765505374467</v>
+        <v>3.17799961098639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9108863367801032</v>
+        <v>0.7638745912680426</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.67353628020373</v>
+        <v>513.6672781829939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9957061718679199</v>
+        <v>0.8064671514336604</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.0003886080704</v>
+        <v>2387.764823881669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8101095667033532</v>
+        <v>0.3764707204809131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1166.966341235301</v>
+        <v>-604.2166171717545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.353650563321277</v>
+        <v>0.8853712631746705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.87097006049225</v>
+        <v>44.00967205613717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9960911365543164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.71107882180934</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0775700940125293</v>
+        <v>0.007428012894434777</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2686.381617518717</v>
+        <v>1459.447166299673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.461793283853933</v>
+        <v>0.6211017739247919</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.025638839946083</v>
+        <v>-0.2851978535989446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9771120531565015</v>
+        <v>0.9986567796397219</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.81124694789281</v>
+        <v>30.22844458118891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7432986809105364</v>
+        <v>0.8305019795894499</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05212281556544207</v>
+        <v>0.007386962284260723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.71781132573267</v>
+        <v>0.9514323749933724</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.255725013088915e-05</v>
+        <v>-0.0001063928819658616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5351073902215009</v>
+        <v>0.4580176844598454</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.331952385246893</v>
+        <v>-19.48963804332067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8989106121604747</v>
+        <v>0.7124511290458377</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.546802463098089</v>
+        <v>6.254552757842632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8726244567883934</v>
+        <v>0.6632380890665019</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1858.021957086926</v>
+        <v>-948.5409026741108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6056378998777622</v>
+        <v>0.7651116971478754</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2664.752989242868</v>
+        <v>-339.8315929606833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6306482918665304</v>
+        <v>0.9320022251107754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1056.269025199281</v>
+        <v>6204.973982692444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.529959324643301</v>
+        <v>0.1964793963147671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7097.884839899956</v>
+        <v>44.30847817236884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1746206748221261</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.57821392220342</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3398278393490254</v>
+        <v>0.03544107464488314</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.92117535807211</v>
+        <v>-1428.952353494056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9883337775916955</v>
+        <v>0.6789308553940678</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.74256650915049</v>
+        <v>131.2087152868571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5098041016225563</v>
+        <v>0.2209884409093818</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.5774629116692</v>
+        <v>157.8236165385186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1568418953945725</v>
+        <v>0.1466991365984304</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02176055839520119</v>
+        <v>-0.05859282918182174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8998213563021089</v>
+        <v>0.7227467658293985</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.589457919630668e-05</v>
+        <v>-6.133897505146229e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7267987148659384</v>
+        <v>0.6487211384198965</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.29155790855208</v>
+        <v>21.26214037476106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.583286217919506</v>
+        <v>0.7126044569157162</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.097019707965266</v>
+        <v>13.32625690101435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5388843932567196</v>
+        <v>0.3725025854805404</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1443.530667444595</v>
+        <v>-211.7811020421859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6292852031657779</v>
+        <v>0.9413221379343735</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3431.695605928995</v>
+        <v>-1191.346842424523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2763413566324505</v>
+        <v>0.6380368046322482</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1940.178645164531</v>
+        <v>4491.081281967075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2345784386454329</v>
+        <v>0.2568063606297347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5423.634862109127</v>
+        <v>45.87017453856873</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1763453299459982</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.00636808115165</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07528954273436804</v>
+        <v>0.01500717165230211</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2998.081944101707</v>
+        <v>1343.796695903231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4411143381458393</v>
+        <v>0.651516558733207</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.48840972285547</v>
+        <v>71.96662210628949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8408807737533681</v>
+        <v>0.5010830126211516</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.01588724909521</v>
+        <v>106.4717744674935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4992079305758212</v>
+        <v>0.308969014622346</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.065179095304296</v>
+        <v>0.01068853264180059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6600682295381983</v>
+        <v>0.9305723893700297</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.432581875848392e-05</v>
+        <v>-9.019103010684214e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7045437008354618</v>
+        <v>0.578194752895091</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.84087932873089</v>
+        <v>-16.49327497129624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7039335948310124</v>
+        <v>0.7842947145160486</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.451468178070769</v>
+        <v>2.471128278824757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8746064332532447</v>
+        <v>0.8552992930448078</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-291.8970893248861</v>
+        <v>106.9600522444589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9130033166619945</v>
+        <v>0.9665161291772626</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1006.447833184533</v>
+        <v>-227.0528453127572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7946240707077612</v>
+        <v>0.949849502178605</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1147.21692260465</v>
+        <v>5118.457801322102</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4853429227914368</v>
+        <v>0.3231797407565649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5455.138694403764</v>
+        <v>38.72545268052006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3081418044308374</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>29.75663772306963</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1486697624398843</v>
+        <v>0.01913320045805433</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3383.413903461573</v>
+        <v>371.153795599379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2272379271555765</v>
+        <v>0.8718625682420641</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.53853862122651</v>
+        <v>122.6309942288171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4763988594066707</v>
+        <v>0.1620414150682364</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.53838854970178</v>
+        <v>122.7645965776538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3621103959667294</v>
+        <v>0.1293380829809075</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1126310198405085</v>
+        <v>0.006714842467652304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3125071760475757</v>
+        <v>0.9462287196310091</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001226989062177382</v>
+        <v>-8.342340261540142e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3293722331403318</v>
+        <v>0.5326049834006592</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.66390375718629</v>
+        <v>-2.409438212477653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9857592639095493</v>
+        <v>0.9528899818756713</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9463534800146078</v>
+        <v>6.111561497369919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.92557988769211</v>
+        <v>0.5533480451666997</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>838.0941333281407</v>
+        <v>1047.314212982617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7226589969660513</v>
+        <v>0.6859574903899803</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3792.737848527122</v>
+        <v>-952.1737541379516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1718851371064901</v>
+        <v>0.6811222907603718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2875.563840088833</v>
+        <v>5901.584000844257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09880404350266844</v>
+        <v>0.1054338800534165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8304.681407390188</v>
+        <v>31.99490391860783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03118554421101429</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.298214800184439</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8797564230709211</v>
+        <v>0.06595444988896951</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2878.494289454738</v>
+        <v>-200.5443771698829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3456830558858504</v>
+        <v>0.9440797986723795</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.33741168864094</v>
+        <v>116.4376640005738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5905102945852759</v>
+        <v>0.258598921961074</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.2417651578703</v>
+        <v>119.6707770397898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.435963021620689</v>
+        <v>0.1893933751674991</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08321187870813002</v>
+        <v>-0.03134181997048407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4725715649563942</v>
+        <v>0.7776252414966502</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.019113824517585e-06</v>
+        <v>-5.767090400307548e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9640628609754971</v>
+        <v>0.6940863957714389</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.776479980451228</v>
+        <v>-4.870617926650482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9244549401561031</v>
+        <v>0.9130920315454891</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05238164084163088</v>
+        <v>7.880097284040048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9963976778067747</v>
+        <v>0.5251258766375912</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1699.257337467729</v>
+        <v>-369.5570661730326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4611831013461659</v>
+        <v>0.8799984260770578</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4042.338204918909</v>
+        <v>-361.8742402354055</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1824795144926268</v>
+        <v>0.8841734764871267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4650.320815633885</v>
+        <v>4914.374872908436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07201344287290366</v>
+        <v>0.2180067292061205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8016.202809410721</v>
+        <v>48.63161456382174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05377261164574517</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.13505969712033</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3058148843350249</v>
+        <v>0.0106713027177255</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2948.804341054762</v>
+        <v>3187.541073686254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1804546725920952</v>
+        <v>0.08737329614705013</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.17695239668109</v>
+        <v>70.91268426590474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2920614369229554</v>
+        <v>0.2556375552830044</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.13962148770383</v>
+        <v>58.81590095218914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2934807005344332</v>
+        <v>0.2806731667914042</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1144368384352762</v>
+        <v>-0.1052430247795382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2277912874476931</v>
+        <v>0.1960244146878006</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.393113071656568e-05</v>
+        <v>-1.741740519698343e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8936902194898819</v>
+        <v>0.8595032165690879</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-38.21141366405277</v>
+        <v>-37.21072792959313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217567855243552</v>
+        <v>0.2025773635765296</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.528301287938802</v>
+        <v>-7.932632992173993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3677016116510042</v>
+        <v>0.3097307345458349</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1222.366378129809</v>
+        <v>-1252.699221074407</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4968696032808116</v>
+        <v>0.4644639545874285</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2335.689001500315</v>
+        <v>2036.078217050062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2829837854204215</v>
+        <v>0.2137773064471128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.5741363025559</v>
+        <v>5703.376067218487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8193551049445076</v>
+        <v>0.1560009597818877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5715.699385536798</v>
+        <v>44.53716307977051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1752425681352564</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>46.53954763883202</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.007047039273676122</v>
+        <v>0.001245017106858811</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2708.209886859117</v>
+        <v>3104.131573521725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3550819711568683</v>
+        <v>0.1954836793534755</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.56512712105183</v>
+        <v>58.73997947301564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4504220125592103</v>
+        <v>0.4361146949372228</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.97123997311203</v>
+        <v>91.88717621754469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2174289265032878</v>
+        <v>0.1997778054136117</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1329936116703986</v>
+        <v>-0.1149559142280245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2788915296973778</v>
+        <v>0.2262074938475344</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.327240286960577e-05</v>
+        <v>-9.165058586647727e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4213307900472317</v>
+        <v>0.4044355857215757</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.67891798382551</v>
+        <v>-20.86140791172135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.586456047127161</v>
+        <v>0.5633818879042718</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.309651325204122</v>
+        <v>-0.825233766839915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9772291004316717</v>
+        <v>0.9302880635673767</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>627.4781674493752</v>
+        <v>481.631673051188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7812619750754357</v>
+        <v>0.8166222699460109</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1512.834448834654</v>
+        <v>1150.558342367694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5468347814919796</v>
+        <v>0.5592560633815693</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.1145123528095</v>
+        <v>336.8621530302389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7954436045915111</v>
+        <v>0.9237304659464636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>171.0496473586736</v>
+        <v>31.26075566421253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9637013225134408</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.57961774743901</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04146101394428166</v>
+        <v>0.01467096051540687</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2539.168210215708</v>
+        <v>717.6884486468043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4613337989117267</v>
+        <v>0.8110997537018887</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3212616416838046</v>
+        <v>52.28163220390184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9976908534036835</v>
+        <v>0.608617869345812</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.2606105183259</v>
+        <v>111.2561528232873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4501786385804812</v>
+        <v>0.2740477125077867</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02829460167714326</v>
+        <v>-0.02074045666017743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8494596831737447</v>
+        <v>0.8853518341801802</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.466802121360434e-05</v>
+        <v>-3.728653158822513e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7242189850183243</v>
+        <v>0.8105860830366335</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.21058900132478</v>
+        <v>8.009962854253992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7879110430563331</v>
+        <v>0.9004716541448119</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.939321268710227</v>
+        <v>6.298754198545915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7560664838507459</v>
+        <v>0.619584414567135</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3429.618888712874</v>
+        <v>-2571.064314067695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2664677908247005</v>
+        <v>0.385657385928499</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4487.240364923717</v>
+        <v>-2390.312713454319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2713513452089097</v>
+        <v>0.4982980675924503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1576.320230663212</v>
+        <v>6901.540267274382</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2857836058734425</v>
+        <v>0.147184759444429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7055.245828257912</v>
+        <v>43.53529152672358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1378695134014203</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.62226754556687</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2232626564980484</v>
+        <v>0.02161003764407244</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2970.798037451748</v>
+        <v>2406.400347442822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2550242711545391</v>
+        <v>0.259973805156805</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-151.5355956647596</v>
+        <v>-145.8441312958992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2899220664308613</v>
+        <v>0.2856999421918268</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-93.50096616721066</v>
+        <v>-93.14967659263141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4199574864247922</v>
+        <v>0.4027021189437503</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01831785573162836</v>
+        <v>-0.04240803200557575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.882911322621197</v>
+        <v>0.6921543705934499</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001616178104791545</v>
+        <v>-0.0001649214231889712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.175915773336331</v>
+        <v>0.1500661189138223</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-49.72409443917195</v>
+        <v>-51.69308226479727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2097465327421762</v>
+        <v>0.1728023919910379</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.032415959940572</v>
+        <v>0.7053640152463636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9236574002413727</v>
+        <v>0.9414218574354726</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1310.879561699223</v>
+        <v>-1144.263694067369</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5566304460253344</v>
+        <v>0.5867005598773303</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2826.611236280671</v>
+        <v>3617.295202508849</v>
       </c>
       <c r="C10" t="n">
-        <v>0.393985074571881</v>
+        <v>0.1798847933180781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-503.8806292544123</v>
+        <v>9738.093246817247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6672874362958343</v>
+        <v>0.01724202934944641</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9950.678891075608</v>
+        <v>58.89124958973787</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02113485696521837</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>54.11826632927489</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01076066648591193</v>
+        <v>0.0008790216597144418</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2097.056252439757</v>
+        <v>735.8056141377174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5642709346024171</v>
+        <v>0.825845566169534</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.65206719681979</v>
+        <v>129.4348132406629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4512058328350187</v>
+        <v>0.225570853770529</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.42442519943057</v>
+        <v>66.76283398612031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5231613371820969</v>
+        <v>0.5268121298432993</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02694696730922341</v>
+        <v>-0.02303434963353646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8331296473520936</v>
+        <v>0.8448558823893497</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.926774544566776e-05</v>
+        <v>-7.92965676527645e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7288843487682553</v>
+        <v>0.5699236076907408</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.97193037473517</v>
+        <v>-18.45842825248008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8297608513313308</v>
+        <v>0.7151768364278315</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.683384463655912</v>
+        <v>6.952907658644421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9164581380692267</v>
+        <v>0.6480561566644567</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-92.63490516698585</v>
+        <v>986.0327632155022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9755487952537725</v>
+        <v>0.7277199370963431</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1610.998528558021</v>
+        <v>128.859983484921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5993133186275592</v>
+        <v>0.9588875937887239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1535.24595097412</v>
+        <v>3187.403447127689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3289767196977891</v>
+        <v>0.4880706212385474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4883.481743354122</v>
+        <v>45.82464246822705</v>
       </c>
       <c r="C12" t="n">
-        <v>0.326216223871008</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34.14331431830519</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1371144202201575</v>
+        <v>0.02610607812644464</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2926.709447891373</v>
+        <v>332.2334277174623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3019206252949545</v>
+        <v>0.8924713705674314</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.87011086318029</v>
+        <v>121.7907604294538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5254501789466108</v>
+        <v>0.1753127724982503</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.36592430880613</v>
+        <v>123.9270378607046</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3110733185406199</v>
+        <v>0.1406875492087497</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1082903513485672</v>
+        <v>0.01229877081231984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3505528606948026</v>
+        <v>0.9072072628051711</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001382263789972153</v>
+        <v>-8.907687039986806e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2910167826142673</v>
+        <v>0.5094319542119041</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.684347586095498</v>
+        <v>-2.656731097983453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9452550424369209</v>
+        <v>0.9496918858975241</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.447569619606611</v>
+        <v>5.87179097359445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9683576026738244</v>
+        <v>0.6170517229466601</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1237.377845517336</v>
+        <v>1177.536246058667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6093251779183759</v>
+        <v>0.6520497619459182</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3800.590708747576</v>
+        <v>-1026.382646490631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1807435691179621</v>
+        <v>0.6577370789088859</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2735.270831526027</v>
+        <v>5693.428347988814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.118952934334993</v>
+        <v>0.1138112061135266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7866.73213018052</v>
+        <v>34.61031960079346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03904287003343548</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.071089225128713</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6541402431575287</v>
+        <v>0.02882649387020222</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4300.325612618607</v>
+        <v>2968.398745574395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1985472363534825</v>
+        <v>0.2776455551292069</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.75153339611256</v>
+        <v>67.69583319155515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7383752109425894</v>
+        <v>0.4144119587594695</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.71423254086369</v>
+        <v>32.33782987775442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8584940745736362</v>
+        <v>0.7195039654860531</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1045137935885188</v>
+        <v>0.05997055946710383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4397135374253436</v>
+        <v>0.6137493563679839</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.722414348687852e-05</v>
+        <v>-8.926576252686207e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4766305650754761</v>
+        <v>0.4571794076453524</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-48.74845994661873</v>
+        <v>-50.06564254822179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2970467485904467</v>
+        <v>0.2740403807953402</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.12904048633736</v>
+        <v>-6.830589427090221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4318959041968177</v>
+        <v>0.5890507062388406</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>211.9935069338808</v>
+        <v>702.1514202581839</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9383969206699422</v>
+        <v>0.7889946120912671</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-317.9621888548736</v>
+        <v>963.5703729066217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9114035635706058</v>
+        <v>0.6774944362617039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1050.158585327479</v>
+        <v>7167.20248844555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4369478175163246</v>
+        <v>0.1167357821090127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7999.536882673117</v>
+        <v>44.59699297888035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1002896302582021</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.9128997657136</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06126697639734103</v>
+        <v>0.00575314747003528</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3869.59647551283</v>
+        <v>2597.434876278807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2072399883045458</v>
+        <v>0.3496879235173873</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.30907640090574</v>
+        <v>60.28275538244498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7664570747407821</v>
+        <v>0.5142349896959068</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.67144002257004</v>
+        <v>84.02155773784872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4178602348546203</v>
+        <v>0.3148231793246362</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02593793316234627</v>
+        <v>-0.03101075585435578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8369047017143402</v>
+        <v>0.7891648129493523</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.804353376318783e-05</v>
+        <v>-7.531307231525039e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5249298538923468</v>
+        <v>0.5875094602909698</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.81716592895285</v>
+        <v>-19.06971254039149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7518499462581334</v>
+        <v>0.6390482080901758</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.432701007810834</v>
+        <v>-0.676597730031645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7751994055709421</v>
+        <v>0.9544536393855851</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>444.3473661387225</v>
+        <v>672.3490465456753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.844244666371247</v>
+        <v>0.7678771110979832</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1781.628939765431</v>
+        <v>-48.02620413842124</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5129876815701104</v>
+        <v>0.9825480761141262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1366.84345893978</v>
+        <v>1684.791019620978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2898673334117127</v>
+        <v>0.7060483111491874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2804.454767928346</v>
+        <v>34.4962291310571</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5396218211619701</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.79279881897363</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3033604608315911</v>
+        <v>0.04235751070520564</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1898.931408041064</v>
+        <v>1442.031457560214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6385910145045179</v>
+        <v>0.6230008430677164</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-57.14785699125662</v>
+        <v>-41.83905146777033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8069609683800238</v>
+        <v>0.8394897328414064</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05279104671052</v>
+        <v>34.17565296524066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9151800082456395</v>
+        <v>0.8446576275260568</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01862113452640657</v>
+        <v>0.005998487447294365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8954593938850139</v>
+        <v>0.9588466682647125</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001204680915206137</v>
+        <v>-0.0001299189445368481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5259678387399962</v>
+        <v>0.4549421371629365</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.63017058401178</v>
+        <v>-34.23093233204173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6356563254867842</v>
+        <v>0.6405547980025859</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.815549467622333</v>
+        <v>3.668831167574652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8255633124306965</v>
+        <v>0.7446919885219704</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.3185543751833</v>
+        <v>258.710463089662</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9555035568721835</v>
+        <v>0.9193534088454528</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1408.28663979058</v>
+        <v>1434.582032818314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7964407883587945</v>
+        <v>0.7826520989183468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-293.2237424097411</v>
+        <v>6099.00307867939</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8609227088135413</v>
+        <v>0.1927031728194811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5955.85616317028</v>
+        <v>50.68417292236064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2310727462853082</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>48.19162052093424</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06079546568561112</v>
+        <v>0.01370381626512172</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767.922565207682</v>
+        <v>-1263.241939925305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5306593287847309</v>
+        <v>0.7001210015949634</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.66217840219815</v>
+        <v>111.1714717908917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6656315793552583</v>
+        <v>0.2581525693900402</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.1738984485351</v>
+        <v>166.0182978218101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1724082562924559</v>
+        <v>0.129843890749794</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05321803065344766</v>
+        <v>-0.07219691483051441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6173589009698242</v>
+        <v>0.5563852002441154</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.488040880014098e-05</v>
+        <v>-4.142065048071304e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8868515114590003</v>
+        <v>0.7554147777222102</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.84967713342326</v>
+        <v>18.73679285650967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4931020703139686</v>
+        <v>0.7321595403406918</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.34398272785004</v>
+        <v>12.14293938808038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6286117482901034</v>
+        <v>0.3819302419936146</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1859.824011211189</v>
+        <v>-719.5165263211734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3990278642409804</v>
+        <v>0.7908093493880537</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5143.973484440909</v>
+        <v>-794.2437907845442</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06435413042130475</v>
+        <v>0.7540648491291837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4931.743341729797</v>
+        <v>4545.145135541487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01815359738398366</v>
+        <v>0.2446698022009358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7550.931664270112</v>
+        <v>46.75147459618245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03437248453751566</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.4279241347751</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.201034962409877</v>
+        <v>0.009368964398535587</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3588.224729645084</v>
+        <v>2033.412958679294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248414987884964</v>
+        <v>0.4504213198821375</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.88603614110423</v>
+        <v>19.80613836871194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7202950667167325</v>
+        <v>0.813048757111696</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.5679949055737</v>
+        <v>106.6166204367498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2769087107571307</v>
+        <v>0.2058326629155224</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1180156991398468</v>
+        <v>-0.1787423797422558</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3580440331170993</v>
+        <v>0.1349205069578256</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001709398031809489</v>
+        <v>-0.0001683547594457671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1427108080971256</v>
+        <v>0.1492179623731264</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.54446362608545</v>
+        <v>11.29740689029478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7572724607845782</v>
+        <v>0.7977964678302575</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.199675917338539</v>
+        <v>6.711849721236739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8521333590267638</v>
+        <v>0.5495721566465026</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>387.1696380717913</v>
+        <v>1094.148718317756</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8736098376519819</v>
+        <v>0.6449364676405054</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1829.084610962323</v>
+        <v>-391.1043796968443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4610186504745712</v>
+        <v>0.8503946332567762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1342.211668487335</v>
+        <v>-1303.175437039561</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2926563605281006</v>
+        <v>0.753950492224909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-760.7095906866089</v>
+        <v>34.46375014023247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8544899640031497</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.91242179349342</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1242513373411785</v>
+        <v>0.01672516606965739</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1305.54062910028</v>
+        <v>1247.11413508343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6609946713927561</v>
+        <v>0.5553963875804537</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.2605349359625</v>
+        <v>124.5046810896159</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2861009479345009</v>
+        <v>0.1276215733185826</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.51033001758094</v>
+        <v>98.10048039541431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2009234774694128</v>
+        <v>0.1612749866642175</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07016140754449524</v>
+        <v>-0.07284963113883949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6064489353919589</v>
+        <v>0.4502025957290092</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.890296688283159e-05</v>
+        <v>-2.873561590327635e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7864625566601806</v>
+        <v>0.7767802792215897</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7435322739440835</v>
+        <v>0.7109134443078347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9853745015128026</v>
+        <v>0.9852955859118713</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.330975427948204</v>
+        <v>6.517273938336785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.620407881171236</v>
+        <v>0.5379948907525552</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1776.505358351992</v>
+        <v>-1741.468204758385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5113773210893782</v>
+        <v>0.4512562821610266</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-979.3618354623159</v>
+        <v>-917.7648338409344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7684831379780531</v>
+        <v>0.7096701120446629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-43.59795561421242</v>
+        <v>6201.028547175763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9764375627193124</v>
+        <v>0.0722806279672526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6246.753559359233</v>
+        <v>24.9974535290973</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1136288954651596</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.68956170829392</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1989252646854246</v>
+        <v>0.1039190902135915</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5363.187197485655</v>
+        <v>5108.717242215207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04227360547984303</v>
+        <v>0.0265735415733775</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.35970078386089</v>
+        <v>51.86761290261779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.61525216108667</v>
+        <v>0.4207519544348889</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.18311118315995</v>
+        <v>20.30333122801835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7922872595362905</v>
+        <v>0.7554003822245885</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07588462751858227</v>
+        <v>-0.08866497704916609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4267829950214344</v>
+        <v>0.2603540851839424</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001460190662364167</v>
+        <v>-0.0001463789314997217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1840983974434876</v>
+        <v>0.1609234968573607</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-45.72102802406164</v>
+        <v>-48.20013865177418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2326056331647826</v>
+        <v>0.1735385720025237</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.848533577935683</v>
+        <v>-6.306105397013852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4483062320792749</v>
+        <v>0.4490767474292959</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1969.387028057674</v>
+        <v>2251.574159605147</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5079523784345574</v>
+        <v>0.3950494757610764</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1341.404098749348</v>
+        <v>1834.621164993946</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6498035611177162</v>
+        <v>0.4019789363055603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-279.0316899332074</v>
+        <v>-1570.253466141316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7926328682593704</v>
+        <v>0.6650113215373512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1201.345705910375</v>
+        <v>30.64614064786237</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7672653038981279</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.15229253937916</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06339020090606931</v>
+        <v>0.00734005632030106</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4040.346739465901</v>
+        <v>2646.524072250093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0449249603966082</v>
+        <v>0.1239330240152459</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-173.4437295833804</v>
+        <v>-166.5764041391818</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09177612392903875</v>
+        <v>0.1193885206246419</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-102.384758805838</v>
+        <v>-103.9369062207649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2038040603255637</v>
+        <v>0.220872451123402</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007592148021687395</v>
+        <v>-0.05315146578913321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9205651431129906</v>
+        <v>0.4435720672780087</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001334903710447799</v>
+        <v>-0.0001384019785641815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1101565125445872</v>
+        <v>0.1150619537661755</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-44.06329060624537</v>
+        <v>-51.45065400153436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1268956323602977</v>
+        <v>0.09023345675449605</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.016845626073021</v>
+        <v>-1.533775735713057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4600762091101678</v>
+        <v>0.8461215128469034</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1388.857317434286</v>
+        <v>-1235.938584955348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3314622126722585</v>
+        <v>0.4100857058534816</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2268.120641433968</v>
+        <v>4240.429336376097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3365113948982622</v>
+        <v>0.05435056526875895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1289.878014492021</v>
+        <v>11725.26656864867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1595535256558663</v>
+        <v>0.001135964712865169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12523.19119319614</v>
+        <v>47.66258371878675</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007261295790826957</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31.8630066947404</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05771497310082573</v>
+        <v>0.001578984089748051</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3301.402528970531</v>
+        <v>873.7444585760932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4530053207543318</v>
+        <v>0.7749518520503564</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.82288949167457</v>
+        <v>73.28680037053458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8727865793101888</v>
+        <v>0.4430567282004657</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.63563307827584</v>
+        <v>108.8571249978988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6212999471291711</v>
+        <v>0.2810813517497574</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07563833551078247</v>
+        <v>0.01475845511710561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.585662932611781</v>
+        <v>0.8960381538755662</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.553803885136667e-05</v>
+        <v>-4.747333658383917e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5869567407959649</v>
+        <v>0.7182856542159261</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.05452531222471</v>
+        <v>-21.26979578190418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6163381061789662</v>
+        <v>0.6949406859461313</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.718682814767334</v>
+        <v>1.822065741079513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.771533026753395</v>
+        <v>0.8948139229622297</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-402.2051714564323</v>
+        <v>-211.3170587698878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8878604758945156</v>
+        <v>0.9396847257714123</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1524.33819192298</v>
+        <v>99.3150558487896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6448437650800726</v>
+        <v>0.9689032044615826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1718.358692340119</v>
+        <v>6195.586184322015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4301109635119298</v>
+        <v>0.1511226172487394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7398.857446278376</v>
+        <v>46.75702083589343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1183557576835869</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.18432550582077</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1819211102157622</v>
+        <v>0.01371526860775653</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1476.928826649546</v>
+        <v>430.4537504792497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6885508295436914</v>
+        <v>0.9042489977763504</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.05322723137937</v>
+        <v>95.87691534615448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5319813518227161</v>
+        <v>0.4626745093471468</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.92934755592461</v>
+        <v>115.6520278201999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4324012251760729</v>
+        <v>0.2848494035478277</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01499309572403124</v>
+        <v>-0.01382429345706856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.926933997553667</v>
+        <v>0.9332511631555029</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.451257008710349e-05</v>
+        <v>-0.0001326642504536471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8079079259968536</v>
+        <v>0.5877028461655281</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.79347510383483</v>
+        <v>-1.113683520557508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9409951846002225</v>
+        <v>0.9863609127382568</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.163112372478576</v>
+        <v>6.811778262945801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8733218612159784</v>
+        <v>0.6026656401786072</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2027.652687505843</v>
+        <v>-170.919368830183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5408689559404855</v>
+        <v>0.9520178194233914</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2381.278982739894</v>
+        <v>-813.9773063546245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5203301487853478</v>
+        <v>0.8114010552576814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2161.482346067497</v>
+        <v>5038.205652892437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2872585426135352</v>
+        <v>0.2897913651718825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6074.611187228646</v>
+        <v>42.27759599296034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2133759189682841</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>39.24706249470994</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08935635939582681</v>
+        <v>0.06847641449888046</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1128.527978659018</v>
+        <v>-403.2922389169617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7582350818514292</v>
+        <v>0.9003761495402411</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.9575000646218</v>
+        <v>87.51357985204407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7668811267082307</v>
+        <v>0.3541885059994703</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.5811931794808</v>
+        <v>140.1893797050188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2415782153791605</v>
+        <v>0.1807145957242015</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04859709672701695</v>
+        <v>-0.02310201445175564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.798846163582169</v>
+        <v>0.8931272632061268</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.876001939247356e-05</v>
+        <v>-9.59092205812349e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4408835535363772</v>
+        <v>0.4494364112112489</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.245934165194171</v>
+        <v>6.002343351522143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9094858436510396</v>
+        <v>0.9122829241234014</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.846654350041916</v>
+        <v>11.25178359317425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6893146787167217</v>
+        <v>0.4926909225531384</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420.6392953223258</v>
+        <v>922.5341821925149</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8658695302214543</v>
+        <v>0.7024712605804307</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2450.307221225354</v>
+        <v>-979.3735694024617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4101015689733352</v>
+        <v>0.6861680601647445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1353.325965916398</v>
+        <v>4419.753647582067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3728742377233489</v>
+        <v>0.2509979426159957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5076.166966962965</v>
+        <v>39.74694619740202</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2040940137448429</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>30.23001180015281</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1168741833591135</v>
+        <v>0.01775563474004716</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6121.846275210537</v>
+        <v>4796.847492469193</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1243867031948093</v>
+        <v>0.1715140936311452</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.86802177660621</v>
+        <v>-48.06934232652253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5046350696830111</v>
+        <v>0.6754240953570332</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.195401385590969</v>
+        <v>19.68048380615488</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9907025015049398</v>
+        <v>0.8416172143663085</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.047236629603983</v>
+        <v>-0.009635465290961598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7833188561048701</v>
+        <v>0.9508149179589827</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.785996001780421e-05</v>
+        <v>-5.944104454364184e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6448689143857471</v>
+        <v>0.6812382603169851</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-63.78749721805843</v>
+        <v>-64.59518242455829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2951975671898526</v>
+        <v>0.2818225281877892</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.362180834052126</v>
+        <v>-4.261604872110581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5643616430726754</v>
+        <v>0.7227261998586951</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>872.9671032437764</v>
+        <v>1102.737339444608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.746084919331055</v>
+        <v>0.6774489677828652</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1268.113437046181</v>
+        <v>2529.12197603706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7113673666375864</v>
+        <v>0.4145041076583198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1158.990219244542</v>
+        <v>-2089.053091499056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.396904094542796</v>
+        <v>0.6947720158332222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1535.472769415715</v>
+        <v>38.02133511879168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.777120560475743</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.18927822866493</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1805668742259527</v>
+        <v>0.02231417161826234</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2455.384922399197</v>
+        <v>1005.264755026343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4349294279039079</v>
+        <v>0.7243863983640997</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9117140041164475</v>
+        <v>12.5979238745274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9952758070224924</v>
+        <v>0.9354606051362162</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.98925095104596</v>
+        <v>43.78285900997457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6960046186005076</v>
+        <v>0.7535391925300265</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003191107892324574</v>
+        <v>-0.06263841682403315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.981709057206168</v>
+        <v>0.6262700957755181</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001879676687361299</v>
+        <v>-0.0002063025570891146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2808377796314293</v>
+        <v>0.2414563293542769</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.39020433332826</v>
+        <v>7.244953884590586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7220811746365825</v>
+        <v>0.8931807989200328</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.386579040869719</v>
+        <v>10.67374373022309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6446733643186309</v>
+        <v>0.4329737108764783</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1316.986674530073</v>
+        <v>-279.5366775328985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7261574643878097</v>
+        <v>0.9394370983773987</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3915.755785072601</v>
+        <v>-1214.252665974091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39088128066239</v>
+        <v>0.7504784677368539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1479.238868156595</v>
+        <v>4302.063571747251</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2794378670703055</v>
+        <v>0.3221190300700598</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5509.306992273923</v>
+        <v>43.66438631168262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2218711980598666</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.2898298642346</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.235023792017558</v>
+        <v>0.03613854991833645</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1455.744445180054</v>
+        <v>229.398193979865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6587055652913167</v>
+        <v>0.9389335370621326</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.45079317606366</v>
+        <v>107.5893852766927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4790629355164215</v>
+        <v>0.2899944873400189</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.0585427206711</v>
+        <v>123.2048482700845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2788971727629296</v>
+        <v>0.191066143344699</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01564742685812631</v>
+        <v>-0.02769850737944635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9001105848450655</v>
+        <v>0.8102425992140414</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.100775539130544e-05</v>
+        <v>-8.720654012191241e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7436604022608986</v>
+        <v>0.5638999903281547</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.414693322781048</v>
+        <v>-0.4811620695242027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9248074449086936</v>
+        <v>0.9916958856781207</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.022975388084344</v>
+        <v>6.364722219531618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.815797840739906</v>
+        <v>0.6099043369153788</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1194.418419036918</v>
+        <v>-400.1781258196397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6553704576490353</v>
+        <v>0.8735073573162925</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2335.252464594143</v>
+        <v>-716.4207202009547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.467089361768206</v>
+        <v>0.7869990899044041</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1547.488315223557</v>
+        <v>5254.70095644001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3566899883913094</v>
+        <v>0.199661443723574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6086.649169552862</v>
+        <v>43.56192180627724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1550515968521045</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34.64236196656947</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1229191131803593</v>
+        <v>0.03661639345175093</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700.918463173519</v>
+        <v>1436.69258360298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5826515220966522</v>
+        <v>0.5177557530401347</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.15904805358915</v>
+        <v>98.82324275524662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3808599665021651</v>
+        <v>0.229024331806217</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4027216595812</v>
+        <v>110.9076958801529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2323006958719787</v>
+        <v>0.1574763680956639</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003428536034531415</v>
+        <v>-0.01237216434816174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9777683721708239</v>
+        <v>0.8988630255589813</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.768053473653159e-06</v>
+        <v>1.854410263366275e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9883191457704584</v>
+        <v>0.9867795580398964</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35.36544599750565</v>
+        <v>-35.6858740871651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3899774716997676</v>
+        <v>0.3615784753732941</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.945678307848283</v>
+        <v>-1.350310840903418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8691471624309539</v>
+        <v>0.8963872198159488</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-302.4788037833464</v>
+        <v>-250.2473334994229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.891680346418996</v>
+        <v>0.9042375302091168</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1298.756726378071</v>
+        <v>1551.117180232428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6687577089636831</v>
+        <v>0.4878760503676625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-243.9851979177502</v>
+        <v>5601.655557334383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8961692218858265</v>
+        <v>0.1274883178171503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5762.959931793428</v>
+        <v>44.64396360851208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1562625971791181</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>42.53026747543245</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0657167029076816</v>
+        <v>0.004614504234612733</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3563.833299247265</v>
+        <v>2194.543767635983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2795766131053803</v>
+        <v>0.433615717476156</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.33995098194436</v>
+        <v>4.841729950635909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9056688207689719</v>
+        <v>0.9743902956773554</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.785523246670891</v>
+        <v>11.67097252687461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9511389286889673</v>
+        <v>0.9259850903520441</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1173327162356055</v>
+        <v>0.05787822058839653</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4442954026561603</v>
+        <v>0.6663910143758308</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001123954041900952</v>
+        <v>-0.0001241261803409649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.419587394947863</v>
+        <v>0.3664001964395484</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.38043497290883</v>
+        <v>-43.01095052500077</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4083453966403151</v>
+        <v>0.3728791717853642</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.190940941401934</v>
+        <v>1.62934318879357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8223578214355782</v>
+        <v>0.8999530251228393</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>925.160676887358</v>
+        <v>1345.587750391468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7339805778878016</v>
+        <v>0.6128609651042771</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-258.16385937214</v>
+        <v>1316.703815947763</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9418880342765358</v>
+        <v>0.6645708656907494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1203.198980008607</v>
+        <v>4112.660443505519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3879804603891908</v>
+        <v>0.3181547073147524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4942.043600316308</v>
+        <v>45.51878100096042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252730506389204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>34.54914574079019</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1005205027768417</v>
+        <v>0.009803395721458878</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3693.802767086913</v>
+        <v>1236.874814933093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2673604205759192</v>
+        <v>0.6388649466664432</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.97112349564608</v>
+        <v>122.2847300489198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4490488388099995</v>
+        <v>0.13272265563452</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.41212068741063</v>
+        <v>96.22401801986854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3488369702149889</v>
+        <v>0.1929237796611764</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1079104110257939</v>
+        <v>0.006925173368040632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4175816467818042</v>
+        <v>0.9477155312885043</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.91172049262441e-05</v>
+        <v>-4.453980736947544e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7656110538569978</v>
+        <v>0.6549816460344731</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.82306275584691</v>
+        <v>-13.6938060050696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5842872061234912</v>
+        <v>0.7332183534695506</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.44579470701908</v>
+        <v>-2.220725518850131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4648910932543138</v>
+        <v>0.8827512393467025</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-871.1537472561376</v>
+        <v>-137.874922420935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.668332670408704</v>
+        <v>0.9447042025045569</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1958.10272057731</v>
+        <v>-513.5243813382931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3893183521915636</v>
+        <v>0.7934336674236654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1499.287170238239</v>
+        <v>8926.416202881655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2292230966036259</v>
+        <v>0.01987148213867677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10054.67965996646</v>
+        <v>36.39025515742141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01246875685817072</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.3659209469759</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.111725559005996</v>
+        <v>0.0116978976797517</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.1713130455537</v>
+        <v>1272.897137926859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6381010369854341</v>
+        <v>0.4198695356457082</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.5231768455424</v>
+        <v>146.3482166745744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04210392981211349</v>
+        <v>0.02288184255979484</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.7354732794179</v>
+        <v>95.96338994822332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07797554069985599</v>
+        <v>0.0674119268641456</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1040339582425575</v>
+        <v>-0.08295610687942534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2981235271084592</v>
+        <v>0.272004655533328</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.945802676302515e-05</v>
+        <v>1.491156861421305e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8259431910704876</v>
+        <v>0.8581059367700272</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.89500530569239</v>
+        <v>-19.21490409347166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4911690867552432</v>
+        <v>0.4839833152309744</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08967902332830135</v>
+        <v>-0.7727006658251412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9915001069661309</v>
+        <v>0.9199363120635746</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-794.3845731859692</v>
+        <v>-869.4291700081285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.614412286737902</v>
+        <v>0.5599388097515436</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1526.600977556642</v>
+        <v>1068.671290411352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4611445595051912</v>
+        <v>0.4846980503251037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.9489835544337</v>
+        <v>9143.028090199623</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7222156828211737</v>
+        <v>0.003523942350920033</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9013.19131340268</v>
+        <v>30.81718437314407</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006320760927696759</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.51392515860536</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03801433345870684</v>
+        <v>0.02004850472182733</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5943.920589150879</v>
+        <v>3780.675303357972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05832764101703497</v>
+        <v>0.1924559365070215</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-85.39710417603914</v>
+        <v>-16.15982907264839</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3274496792527995</v>
+        <v>0.8439955460803146</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.34695641404744</v>
+        <v>84.68130055395693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.396953851704236</v>
+        <v>0.3517005483010389</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06957287907088594</v>
+        <v>-0.1287796952529113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5118459263614156</v>
+        <v>0.2524493591556874</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001614315528385177</v>
+        <v>-0.000162791809975209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1432450571136702</v>
+        <v>0.1728816039020262</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.653466662288224</v>
+        <v>-12.67393892098198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8892001996824994</v>
+        <v>0.7754516517794345</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.269274219100353</v>
+        <v>-1.769376345567771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.481710581552157</v>
+        <v>0.883185332792773</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>840.4322566830706</v>
+        <v>1511.311589645984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6841220212885926</v>
+        <v>0.5007095609797159</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1676.36246521799</v>
+        <v>439.076958347765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4739321470714869</v>
+        <v>0.8379915801906636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1849.675397659597</v>
+        <v>-2577.002112990014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1101920340832713</v>
+        <v>0.5562611109270319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1834.135813811572</v>
+        <v>34.98131279774729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6464073521242492</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.75660939974991</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2157965979559337</v>
+        <v>0.01415164346286583</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>963.3932529606645</v>
+        <v>1243.772663763706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7822116706391729</v>
+        <v>0.6564294762042941</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-76.61289763912805</v>
+        <v>-77.11057997222076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6253271024733171</v>
+        <v>0.6057668814482698</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.01911409208083</v>
+        <v>18.70672690070239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8748664657994862</v>
+        <v>0.8769031928566566</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004507976073178099</v>
+        <v>0.003356187673862365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9713377003436978</v>
+        <v>0.9752874941629449</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.988464046649967e-05</v>
+        <v>-6.320131661604418e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6726809744953248</v>
+        <v>0.6356360372295875</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-45.79205211348577</v>
+        <v>-43.40569002230188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4122597913208953</v>
+        <v>0.3932953499174174</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.641340287695712</v>
+        <v>3.023681815584396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8013776181669299</v>
+        <v>0.8187910197958184</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-702.651971383184</v>
+        <v>-763.9043701946703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7911797818145552</v>
+        <v>0.7597160989757339</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2622.516039492953</v>
+        <v>2211.808043298584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5259481199087511</v>
+        <v>0.4477706770540721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.398990999694</v>
+        <v>6683.873368501243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8819241333305632</v>
+        <v>0.09245467183847016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6607.798411513224</v>
+        <v>59.90491655462456</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1153881440341347</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>63.15409961694531</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0476484725490082</v>
+        <v>0.005313441123279424</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3578.070049805768</v>
+        <v>1382.483266548003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3410739083648335</v>
+        <v>0.6249223354347231</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.82059942109305</v>
+        <v>88.73888328277667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8648649782022899</v>
+        <v>0.4094228140828134</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.67753312162863</v>
+        <v>78.02661910856931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6837239605312542</v>
+        <v>0.4267822737826489</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1431857482666893</v>
+        <v>0.07613684519189334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3712261987188957</v>
+        <v>0.585977112486206</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001030409216453407</v>
+        <v>-0.0001121538629157194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5027763888096313</v>
+        <v>0.4627898153925017</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.49505191465387</v>
+        <v>-25.33586146564998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5559962935929541</v>
+        <v>0.6576688324196855</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.34100004067605</v>
+        <v>3.811063380006331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8617055198532704</v>
+        <v>0.744261516957441</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1192.652320813634</v>
+        <v>1880.24685149657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6824205263969036</v>
+        <v>0.5052159027418014</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1394.839663104292</v>
+        <v>-375.7979016886447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6744480719749033</v>
+        <v>0.9036833253949998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1738.471852079756</v>
+        <v>3460.916428475577</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3585870350529855</v>
+        <v>0.4309952164814711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4699.907857782255</v>
+        <v>40.61365127771865</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3145741595477619</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.09868462637006</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1937821624528703</v>
+        <v>0.0114944374852211</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Dresden.xlsx
+++ b/outputs/ML_Results/dist_LR/Dresden.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58117975" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ58217419" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ58313553" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58406558" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58501887" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ58596398" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ58691921" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ58783432" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ58876658" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ58975918" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ59069429" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ59161937" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ59258452" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ59351963" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ59444765" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ59539277" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ59632788" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ59729304" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ59823335" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ59917002" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ00015249" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ00135450" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ00229960" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ00325475" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ00420246" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ00596955" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ00694900" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ00788409" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ00881921" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ00979433" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ01074148" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ01169177" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ01262688" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ01359201" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ01492336" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ01585851" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ01682666" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ01779179" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ01875692" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ01973201" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ02071719" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ02173238" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ02266651" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ02362162" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ02456670" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ02569267" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ02696991" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ02798281" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ02901712" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ03044009" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ23605656" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ23703736" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ23807297" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ23915319" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ24074772" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ24188981" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ24284170" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ24377273" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ24468357" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ24560755" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ24654609" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ24747535" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ24841916" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ24936363" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ25031067" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ25123927" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ25217785" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ25313436" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ25404175" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ25537447" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ25633230" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ25731010" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ25822592" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ25914309" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ26008043" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ26103801" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ26200435" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ26299124" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ26394971" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ26531603" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ26628660" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ26725843" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ26818413" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ26911749" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ27007833" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ27106304" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ27204040" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ27297551" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ27388407" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ27483393" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ27581070" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ27675114" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ27767079" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ27857597" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ27950482" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ28047246" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ28205729" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ28364739" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ28457757" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ28553145" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Dresden.xlsx
+++ b/outputs/ML_Results/dist_LR/Dresden.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ58694470" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ58773135" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ58856509" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58940941" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ59024028" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59107257" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ59192166" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ59274007" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ59358209" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ59442204" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ59539743" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ59666945" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ59770731" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ59854969" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ59940703" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ00054989" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ00147036" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ00226200" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ00308179" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ00391375" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ00488376" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ00574220" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ00659784" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ00742663" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ00826698" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ00912598" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ01001260" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ01083082" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ01156004" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ01240115" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ01322417" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ01388746" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ01477461" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ01565046" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ01648205" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ01730546" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ01805453" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ01888964" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ01972950" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ02057895" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ02145601" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ02224575" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ02311848" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ02389491" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ02475376" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ02555866" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ02640192" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ02723935" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ02806871" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ02891857" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ27875887" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ27969208" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ28065004" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ28160349" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ28253356" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ28343801" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ28444063" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ28539199" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ28636513" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ28730513" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ28823288" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ28914535" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ29007903" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ29111205" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ29224655" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ29370620" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ29493938" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ29631870" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ29727765" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ29851617" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ30024752" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ30132890" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ30233621" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ30336098" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ30432494" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ30533958" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ30647573" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ30749290" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ30861205" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ30963433" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ31119949" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ31236372" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ31343716" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ31451094" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ31548607" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ31680938" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ31963294" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ32062057" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ32159519" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ32262815" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ32363971" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ32462732" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ32562457" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ32665996" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ32762504" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ32864360" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ32960830" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ33060386" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ33157043" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ33256454" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2841.418991262523</v>
+        <v>2922.623170453114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0030309335252168</v>
+        <v>0.1256412404483973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.1953698757964</v>
+        <v>91.31338379873642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007854230497078696</v>
+        <v>0.3119741816332236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01683866509031717</v>
+        <v>93.92495206071183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8566649237038375</v>
+        <v>0.2214714743989384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6293.2152697128</v>
+        <v>0.01956609795150366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06144689613575003</v>
+        <v>0.8363977911293433</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2371.224387479861</v>
+        <v>-8.352769409417164e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1554096257016753</v>
+        <v>0.5497155583761103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.1296081913649</v>
+        <v>0.8317777957702006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01962188313311228</v>
+        <v>0.9202938098282648</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2875.332958226429</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3338897992065127</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2675.133238791252</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.171275861732541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5274.584687321865</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2026606249708017</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.02274308568842</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1709688010192457</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2374.874718310919</v>
+        <v>2023.634897864114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01488884235383616</v>
+        <v>0.2098169827051343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.0001939567593</v>
+        <v>122.1500210531938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004652352214324447</v>
+        <v>0.1776336365937124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05546389152019177</v>
+        <v>101.6221123872049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5911903317236189</v>
+        <v>0.1623454834934754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7582.126530671741</v>
+        <v>-0.03911631641863944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06977556468889437</v>
+        <v>0.6651195972722572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1025.956776546935</v>
+        <v>-9.928441970302325e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5013793302290037</v>
+        <v>0.4339543500774243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.716839337192</v>
+        <v>-2.784621072711865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07447868087969327</v>
+        <v>0.7610403212639096</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2106.927603972493</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4243958513255063</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1080.642559195044</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4921379229992724</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7286.209652322716</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0867859608700236</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.43806770216523</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01228146848793888</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2493.47227902299</v>
+        <v>159.6026043100537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007960851445990118</v>
+        <v>0.9144051456287151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200.7521630559505</v>
+        <v>207.6310759387136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003062456461233159</v>
+        <v>0.01578830088795458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08048873655575983</v>
+        <v>168.1864202917325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3993946141293677</v>
+        <v>0.01310280844654761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5245.102933383479</v>
+        <v>-0.1132295464938873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1178472812621648</v>
+        <v>0.1617335583782055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745.6847005105483</v>
+        <v>4.672562295285213e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6092012238858799</v>
+        <v>0.7230534886841495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.4551131928136</v>
+        <v>3.900329712943535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01139769808298592</v>
+        <v>0.5740195443884129</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1544.51785376999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4369072349370947</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>279.6444212808256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8444595262237446</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3298.799055578555</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2861513217398747</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>53.64910682222046</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003406528453420335</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2490.68533639808</v>
+        <v>1175.106796377646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02916110289401814</v>
+        <v>0.5518728465671252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218.8713044833529</v>
+        <v>1.546660391105888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02740503554387055</v>
+        <v>0.9920285046304206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01192333376939902</v>
+        <v>6.239321026046241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9247362714892393</v>
+        <v>0.9596531842361575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3976.021756462197</v>
+        <v>-0.05820106890656324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3062734878151406</v>
+        <v>0.6263069225494893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1687.770313042027</v>
+        <v>-0.0002344473289807999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4326934104982065</v>
+        <v>0.2469988663976328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.2128719708005</v>
+        <v>12.32671406716699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05859993261092996</v>
+        <v>0.4043799692905492</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-78.29766306300917</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9783844569862511</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>350.3794583753051</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8821769247662725</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3387.955271392898</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4723122198242306</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.3240046716192</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03587817945009229</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2835.739459869417</v>
+        <v>2368.356173794131</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009921510690948807</v>
+        <v>0.14226870694352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.6441036941494</v>
+        <v>145.250737931681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02044673373564826</v>
+        <v>0.08414070365773198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04453131598423254</v>
+        <v>81.33097279505824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6793714451650562</v>
+        <v>0.2094702589398941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5227.006958373971</v>
+        <v>-0.05457959019812142</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2071790082837274</v>
+        <v>0.5304039954398383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1075.336507840841</v>
+        <v>-0.0001789092885294385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5063057654899317</v>
+        <v>0.2434662769049128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196.3259789563819</v>
+        <v>-2.458040665522695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02468081104778802</v>
+        <v>0.758883320824886</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-345.1437201000954</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9118568819278567</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1438.035771441456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3433341965181903</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6811.948868474987</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1069403242302538</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.62617888091002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.009265346456512577</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3500.148077157214</v>
+        <v>2165.033425726231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006663424034534161</v>
+        <v>0.3309860769295023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.3002927212011</v>
+        <v>163.0672505790358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02876844411646217</v>
+        <v>0.06489006676366356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02345802899508231</v>
+        <v>118.2462503455875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.862600496411425</v>
+        <v>0.07908972032030566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1996.189237948583</v>
+        <v>0.07236663902336515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6581446539452275</v>
+        <v>0.5585856667285156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1719.596780441838</v>
+        <v>-0.0001263349420735615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3106406451448538</v>
+        <v>0.254208031254706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.8854868733716</v>
+        <v>-1.196333031409772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04987610877058535</v>
+        <v>0.8804561209346131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>877.5534422285918</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.655575661299052</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2859.205422897548</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06755821436164561</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3001.089654937172</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.481134758363814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>36.86875264947064</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01858460654245233</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3371.723464035029</v>
+        <v>3161.896647801381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004058180806555376</v>
+        <v>0.07692677577810539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.5506101089895</v>
+        <v>106.2951923349133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03443042429926255</v>
+        <v>0.2245107846242142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0716563796259837</v>
+        <v>68.60056766316015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4277554885799788</v>
+        <v>0.2963456321072934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6100.228932399268</v>
+        <v>-0.01062069430616491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05302951856774264</v>
+        <v>0.9101265585878529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2480.026623878388</v>
+        <v>-8.930889086712174e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1028258776179748</v>
+        <v>0.4838936159579608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.0074869781452</v>
+        <v>2.792382862849262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005977133063761504</v>
+        <v>0.746239563462429</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2363.468296458254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3769991746513187</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2935.805766651833</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1039117353666174</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5335.623658416293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1535782846298874</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.63691409265586</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2169235520521378</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4091.51598896569</v>
+        <v>4318.916808673942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005827639746580048</v>
+        <v>0.01188530583003663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.3740267218365</v>
+        <v>108.3711235474036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02370555179982586</v>
+        <v>0.1582024253771093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1684911914478383</v>
+        <v>70.46412755023465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1051063414013749</v>
+        <v>0.1739431296440899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>249.5687585957003</v>
+        <v>-0.1785250791338106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9468621161270488</v>
+        <v>0.04610602062106465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252.5623021693282</v>
+        <v>-0.0001799259822882486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8502813642000906</v>
+        <v>0.09058957185105787</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.0249177345295</v>
+        <v>-0.3510729463898503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03654621863574908</v>
+        <v>0.9533652989081772</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1672.119986448997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3625133105447368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-416.0702145582782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7152751659028034</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2772.512626458738</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4399802216701862</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.18017325059758</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03298044907143954</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2962.206313688349</v>
+        <v>3333.924009670829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004205180745046431</v>
+        <v>0.0858454325589046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.3961258266131</v>
+        <v>68.56275698931233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01865080047077073</v>
+        <v>0.3549831341737421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03791026974574274</v>
+        <v>93.85610248990042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.748318325157653</v>
+        <v>0.1406706201216632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5491.943030506389</v>
+        <v>0.1546939718016414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1100889995562964</v>
+        <v>0.1223242503931829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3096.943136914071</v>
+        <v>-0.0002027912836378587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1201741665268106</v>
+        <v>0.09191787577199263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6614067634127</v>
+        <v>-2.809358868633169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007263922275658052</v>
+        <v>0.6955747819915064</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2781.743547431168</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2621606612020725</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-5911.972745869993</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.007423184901183377</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7237.348893775851</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04035644557822712</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>42.5809483232655</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02757586225569615</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2430.808464981922</v>
+        <v>1918.274871371571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01187703666197138</v>
+        <v>0.09767099833229452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.8822940380726</v>
+        <v>-224.8969034844832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01022445249633053</v>
+        <v>0.07280130766363416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.02869749777837838</v>
+        <v>-224.1937084029548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7958540065502803</v>
+        <v>0.04607690744466707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6899.912652028655</v>
+        <v>-0.2495833222616265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09573925869921542</v>
+        <v>0.008162745434333769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1723.763725921537</v>
+        <v>-0.0003979414501190499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.33502957305192</v>
+        <v>0.00497824309694192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.8376089311059</v>
+        <v>8.89276552269588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04716916315411526</v>
+        <v>0.2219823934728173</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3590.507565614464</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0930667688977455</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3127.58349339433</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07745256374175592</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11838.44689634179</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001627842769246481</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.2653630289479</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001641941622221953</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3061.929881434288</v>
+        <v>1782.973765034293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009823362380563673</v>
+        <v>0.3650311685761644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.4424851819884</v>
+        <v>134.3642462703264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03456642389594877</v>
+        <v>0.1720067545613168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03362293953325909</v>
+        <v>106.651579480415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7557838657409078</v>
+        <v>0.1550767998399542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4217.620428938888</v>
+        <v>-0.01657994553465553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2705441553254269</v>
+        <v>0.8731530259176652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1518.534888784747</v>
+        <v>-0.0001425184590071033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3578085855646977</v>
+        <v>0.4769088418870399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.1078344661508</v>
+        <v>3.492474974812502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04720054894252278</v>
+        <v>0.7966120218612565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-294.373599014476</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9175750499991826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1494.832974529932</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3948406258249526</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3824.345424828727</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4007613173397718</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.81303310984035</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05071159646760137</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3045.238622450805</v>
+        <v>1666.58993450219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006231505323121766</v>
+        <v>0.408818984368586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.4298946604589</v>
+        <v>168.9299034370765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03162114459046008</v>
+        <v>0.1079374860478046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.005869715778021173</v>
+        <v>112.0405657859118</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9645697308377874</v>
+        <v>0.1400030543822149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4386.948578573923</v>
+        <v>0.05023337709163188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2613005218245474</v>
+        <v>0.6836036386695814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1884.146233855178</v>
+        <v>-0.0001224253966309614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2926157411097709</v>
+        <v>0.3905499767880746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.9553378602121</v>
+        <v>1.833027235310873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03916272680539573</v>
+        <v>0.8784623458855301</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>514.61722155191</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8503767197589888</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2287.949533177957</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.273935440293646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3557.446756212183</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3842366511423593</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.47480717364735</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03643507187126955</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2832.98920142099</v>
+        <v>759.1577414663061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006096471424384001</v>
+        <v>0.652444134099516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.0604390312352</v>
+        <v>213.7959213861328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01980023935700532</v>
+        <v>0.03745419783818131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05791506946917471</v>
+        <v>103.2861473143379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5986132239802444</v>
+        <v>0.1391416833333962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5034.602333624964</v>
+        <v>-0.02322189863707635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2190737990846865</v>
+        <v>0.7999980897052895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1028.818154951707</v>
+        <v>-2.022313933184119e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5286393075732416</v>
+        <v>0.8766957920413082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.099929630571</v>
+        <v>3.132437992120217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06458911999026369</v>
+        <v>0.7286130820496828</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1491.338330588509</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5477365937937411</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-868.0024215947396</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.583185244476789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2279.193593113985</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5364664276031346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.94953793478636</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004902711235815929</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2888.128022173836</v>
+        <v>2240.425561857513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004043436555646584</v>
+        <v>0.1381802120380999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.4118254260079</v>
+        <v>115.4958447972517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009363436239082803</v>
+        <v>0.09972793073364576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05532369843633522</v>
+        <v>85.25966295821615</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6509133164657472</v>
+        <v>0.09599147835389298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5885.542701767303</v>
+        <v>0.06084424079931494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1123044298984326</v>
+        <v>0.480430298560871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3152.321139092865</v>
+        <v>-7.402685761182318e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1038228726765689</v>
+        <v>0.5204817238378142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.4500672370461</v>
+        <v>-0.7982472459959311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009125198362947472</v>
+        <v>0.9004736265997496</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3710.732027686228</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1596262812035888</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2987.445008596281</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0692556984007441</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7834.147434303555</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02303798229936584</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>43.49176918385928</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004266743168862594</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2215.748808264474</v>
+        <v>2349.071860699235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0316560068510908</v>
+        <v>0.2008748254926062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.3505519740881</v>
+        <v>90.4652614644599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009422258746648779</v>
+        <v>0.3502356439475984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0347326624562897</v>
+        <v>133.6717214170361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7281802125936347</v>
+        <v>0.09603696733317325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6864.119281874475</v>
+        <v>0.03468313331164652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05400746215392563</v>
+        <v>0.7569708620836637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1347.508563584894</v>
+        <v>-0.0003015244701244644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3593932479013024</v>
+        <v>0.2019509418432023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.8496063307447</v>
+        <v>4.310010231490232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02678692510445062</v>
+        <v>0.6584406221707662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>794.40692230475</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7724048439676725</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1864.733578809528</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2751444925443019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3389.087847008799</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.432464202894345</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.89891803230462</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3092607787789281</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2731.097356559439</v>
+        <v>1984.002265871485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005182491334278445</v>
+        <v>0.2855152654125671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.987813908697</v>
+        <v>179.2670784710428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009951982745884512</v>
+        <v>0.07477049667287311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08965746645246392</v>
+        <v>128.7437963611051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3995802352585492</v>
+        <v>0.09966652986093556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4769.183460051784</v>
+        <v>-0.05829494148376652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1886355898210142</v>
+        <v>0.5489369948873685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-459.2109015235965</v>
+        <v>-6.167817884049294e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7780794914726719</v>
+        <v>0.6490993201805935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.0779689627796</v>
+        <v>-1.399977994751527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02707536939556502</v>
+        <v>0.9080255718413278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1205.354508639386</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6269086843385479</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-941.3438464601663</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5744732860919558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4646.489234243803</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.239733192588791</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.03336196821301</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02094481758742429</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4769.644661566979</v>
+        <v>4185.982247835193</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006336833843854999</v>
+        <v>0.04520486213340717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.263270227272</v>
+        <v>-113.2974958460634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1340605036541583</v>
+        <v>0.3774330189356007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1586178573104419</v>
+        <v>-43.91554051292707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1793175926707757</v>
+        <v>0.6292285606221248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1814.022263947863</v>
+        <v>-0.1820474849835906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6824307481724228</v>
+        <v>0.07662120668345666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475.2245002399231</v>
+        <v>-0.0002538299492925007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7815571639467397</v>
+        <v>0.06096854388445095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.44176881532536</v>
+        <v>4.404280436909218</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3774735026473265</v>
+        <v>0.6083483391512867</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-520.6509859128455</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7925506854501292</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>774.6450291717756</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6645585333339279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1072.623188862381</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7942748054548383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.13791051557007</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01983292042330302</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2647.733074047158</v>
+        <v>1470.551324197513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006191760628658577</v>
+        <v>0.3667843470039742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.0410212643447</v>
+        <v>204.7109715766526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02107882816494712</v>
+        <v>0.02714559951113906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01390173708913078</v>
+        <v>98.15756779831821</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8831395882392457</v>
+        <v>0.1496466907518355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6315.694511137819</v>
+        <v>-0.01104469461977875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05999558479243747</v>
+        <v>0.8990225960007565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1895.608461871727</v>
+        <v>-0.0001243179770905856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1832441256798273</v>
+        <v>0.3398258027757581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.2386040388128</v>
+        <v>4.812083188196112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004844690941281838</v>
+        <v>0.5857567445777621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1664.496380320023</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5032320340982781</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1712.065357610707</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2813589092809134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4016.198374719892</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2837063766732603</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.12160581204729</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06783441240540405</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2813.581672717047</v>
+        <v>1442.247875400666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002421290129360766</v>
+        <v>0.4147683722356701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.2062692853087</v>
+        <v>170.8851914493896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01260011916405438</v>
+        <v>0.08461423496890591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05267601002465359</v>
+        <v>97.92655343589227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5824524359825336</v>
+        <v>0.1153847611900135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6156.402410174746</v>
+        <v>0.0160959227444223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0609611686662523</v>
+        <v>0.8549496559415496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3416.353980342623</v>
+        <v>-4.653368466115088e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03912366975653692</v>
+        <v>0.6928992894584487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228.618489544235</v>
+        <v>5.015734878590138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009296386485003324</v>
+        <v>0.6299239046117346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1546.522822511586</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4983336671566286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2536.574056109308</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1626636456504569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4720.969004186451</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1617517780621854</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.22489055881715</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02249391531158205</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4347.514439637505</v>
+        <v>4083.897078055515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006410116854541639</v>
+        <v>0.02614634675280605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.3525555729937</v>
+        <v>-92.33062264944635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.065937859360753</v>
+        <v>0.5043493106666794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1689278983733115</v>
+        <v>-81.12289465851535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1281338083532062</v>
+        <v>0.4395779480362563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.39177678396663</v>
+        <v>-0.2274539375679113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9900010668167251</v>
+        <v>0.03376987247549146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655.2860413855051</v>
+        <v>-0.0002958480842363637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6779063908921379</v>
+        <v>0.04389861790157336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.014552059676</v>
+        <v>8.943213447140653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2672103010320691</v>
+        <v>0.3449721258186408</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>682.3462613733573</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7484581616063548</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1176.208939087873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5356073683287232</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2398.071148955905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5489839230868101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.22551301247316</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03046026431444122</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2857.174073710827</v>
+        <v>1735.90614524279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004192256117108919</v>
+        <v>0.2827082105675592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173.0311730786879</v>
+        <v>174.5824213973609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007501604926963377</v>
+        <v>0.04790990085465915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0367284732000096</v>
+        <v>131.281805757176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7716098107300264</v>
+        <v>0.0534579272487369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4214.000290035801</v>
+        <v>0.01286483985345732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2225073719037306</v>
+        <v>0.9085683229918927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1213.588558455714</v>
+        <v>-0.0001286273789457539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5020572458952377</v>
+        <v>0.3666802121319837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.0276684104766</v>
+        <v>0.6997144919847642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0137782571274545</v>
+        <v>0.9315783428624284</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>736.705012416759</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7864377156002673</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1790.713099552754</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3040286370959178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3821.73069797652</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2796397381975778</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.59739095465593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01634312406417323</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2543.198258044132</v>
+        <v>2217.812779978499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03140988710147529</v>
+        <v>0.1461873502029769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177.4197987482823</v>
+        <v>88.00612121055701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04155094991109604</v>
+        <v>0.2720575901617278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05557247123509446</v>
+        <v>134.4916645765874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6206130837206587</v>
+        <v>0.04850631499459897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6447.95325307432</v>
+        <v>0.005176513868438537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1224170104992582</v>
+        <v>0.9568443446443693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1176.60113959475</v>
+        <v>-0.000217276273138826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4751532061850359</v>
+        <v>0.2574172304028355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.6698192322145</v>
+        <v>-4.678374094251339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02379790260777218</v>
+        <v>0.6110841052605958</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1894.037336292706</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4507757068977719</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2125.19362781004</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1352497481113685</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9730.796512048215</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04648154578350569</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44.01619259710114</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01907130991840516</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2813.06646299846</v>
+        <v>2327.897581820165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005070225927817542</v>
+        <v>0.1505166990129182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177.0871171940815</v>
+        <v>172.4834578111729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01178005267863313</v>
+        <v>0.0616358857440849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1013345590011088</v>
+        <v>118.9793966631428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3076581566216788</v>
+        <v>0.1174037472445741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4937.480118393929</v>
+        <v>-0.05687966985508575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1515580497247487</v>
+        <v>0.5312507359565879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-569.7559067355587</v>
+        <v>-0.0001339871975733797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7077501247645103</v>
+        <v>0.3647744257035509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.8373650478222</v>
+        <v>-0.5979911699727296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01117438874930652</v>
+        <v>0.9439783667269959</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-454.7118119069351</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8550834883421838</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1274.39243687929</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4241259677320431</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4237.656769211826</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2805492728996392</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>36.29657760087725</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02463354853620203</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2569.307556319613</v>
+        <v>1503.699297835845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00813547544646381</v>
+        <v>0.4246343263538183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.9777726441385</v>
+        <v>137.1308886088814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01270663378736585</v>
+        <v>0.1460320567537831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04502355459656521</v>
+        <v>120.4685417495913</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6543885509584878</v>
+        <v>0.1143926384125526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5210.368039137073</v>
+        <v>-0.007589932810231015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1362111268973018</v>
+        <v>0.9397148881656587</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-382.3552957816823</v>
+        <v>-8.442422915348161e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8090400097491949</v>
+        <v>0.5664854402359218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.4123275158382</v>
+        <v>2.846355511134959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01217245555513025</v>
+        <v>0.7590647438195457</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-924.0002870298413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7401494683721132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-897.2577065969317</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6466546426651114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3828.605576628528</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.341449173235483</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>39.47183722306184</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07269292560356028</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5133.088804265917</v>
+        <v>5214.061833777112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004626059753128592</v>
+        <v>0.04230523936184787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.7092531317578</v>
+        <v>65.43372100217675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09242885023221722</v>
+        <v>0.4888296515480945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1384726524148699</v>
+        <v>60.28922788139562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1995006253737711</v>
+        <v>0.3908575801640307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5020.850558873786</v>
+        <v>-0.09037209144863217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3079062876604723</v>
+        <v>0.3695902368332877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100.1690699395731</v>
+        <v>-0.0001421670967175315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9459394593374758</v>
+        <v>0.2818294092377313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.14448534066416</v>
+        <v>-6.596260759811173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3227957963314693</v>
+        <v>0.5171875036510909</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-976.111028065081</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6822392256387448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1291.727684712526</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4294245271531886</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2426.278706043842</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6276598264818166</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>30.23887534899626</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08594849394166244</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2858.468981749746</v>
+        <v>3588.182426031022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002675679354961665</v>
+        <v>0.03335144405733666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.0314855124733</v>
+        <v>87.29271908748689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01487073005331371</v>
+        <v>0.2657569674817646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03251919209034515</v>
+        <v>66.72796661266591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7279839225637574</v>
+        <v>0.3383944576509473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7522.184980348047</v>
+        <v>-0.02587441938463375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03406930507876096</v>
+        <v>0.7487121603323005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2716.523749486436</v>
+        <v>-0.0001049074420965537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09007568482867886</v>
+        <v>0.3579957318536202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.7384591482826</v>
+        <v>-6.585309984157831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01386430472106422</v>
+        <v>0.4447563931284489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4344.924629382314</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1163800505140692</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3081.129426967349</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05528696140764985</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10633.80881638293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02084920581715921</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>37.38803815942734</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02306000523776024</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2452.236977566551</v>
+        <v>1110.446931099583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01257424533458971</v>
+        <v>0.4679097041157499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.2839140031926</v>
+        <v>14.28196453307373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03945663050652273</v>
+        <v>0.9130770319430055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01324715269701754</v>
+        <v>19.65161709636192</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9030164243043091</v>
+        <v>0.8314377675167333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6585.518060948413</v>
+        <v>-0.02955487539574492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07058806048384299</v>
+        <v>0.7668547396301711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1913.142029274164</v>
+        <v>-0.0002058944312571119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2759759884586783</v>
+        <v>0.239533760411087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.6509821073935</v>
+        <v>9.765335419834415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06247143344085476</v>
+        <v>0.3803157877294608</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>163.941200970974</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.942452596902249</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.548950182897897</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9980933980681113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5203.142388155195</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1787624041173877</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40.71498281468668</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02391547063586818</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2866.342105003122</v>
+        <v>944.8132251686784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005843671468874686</v>
+        <v>0.5745240299034218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.6645915301602</v>
+        <v>170.5125700213779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02613258331083442</v>
+        <v>0.05529741927438544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08125556720218635</v>
+        <v>112.5614784220124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4284669063053426</v>
+        <v>0.08401642952858969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4977.544026452044</v>
+        <v>-0.05858373782158915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1628150095572657</v>
+        <v>0.4932849593012888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1167.495122164492</v>
+        <v>-0.0001137864804292692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4428386728853568</v>
+        <v>0.4247234996150819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>226.0213819764107</v>
+        <v>5.062693452255822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01303563274976889</v>
+        <v>0.5199423397315004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>436.3767562158737</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8490261023572143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1100.707432678591</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4697116104476741</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1798.067156855839</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6214105797430558</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.15363958115564</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008186636754504506</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2558.211236487415</v>
+        <v>1401.48513764976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006396658661144351</v>
+        <v>0.3840999145363817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.6501713233525</v>
+        <v>195.9712572660366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004515894761675753</v>
+        <v>0.03011003737489209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04830680673239174</v>
+        <v>140.2323457714274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6654818080171303</v>
+        <v>0.04156636404565901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4630.174402650199</v>
+        <v>0.009309987661808905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1568487745828301</v>
+        <v>0.9271203124362456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-441.0432459517524</v>
+        <v>-0.000134947447289097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7910292788266706</v>
+        <v>0.3609459292472221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>233.3438405044938</v>
+        <v>1.969485994228187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00463431533628729</v>
+        <v>0.8049092101285836</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1491.542933841401</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6184381959994332</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1262.228814502565</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4619942839323637</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3571.921492542558</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2940833995896704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.96033465584217</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02835833611157906</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2937.432291010557</v>
+        <v>2797.818201809724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006805821415214855</v>
+        <v>0.1288693118865114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.5182982887421</v>
+        <v>187.1576131785308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002769465259691415</v>
+        <v>0.3508501008148132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.005813409190179752</v>
+        <v>137.857659393959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.948341798844432</v>
+        <v>0.3758272194049133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4505.679303844659</v>
+        <v>-0.01765172814229138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1285940792586488</v>
+        <v>0.8707330288985042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3191.981111738969</v>
+        <v>-2.614331872050199e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05899715914777297</v>
+        <v>0.8860435222300185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.1314272646156</v>
+        <v>-1.960323573302745</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002145900037454428</v>
+        <v>0.8760742717990724</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2206.514977167411</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4013250044106379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2697.457776689213</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3247284312242299</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5623.560151997845</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1223137678960936</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.56192896920649</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2312242108020193</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2545.228132121231</v>
+        <v>2131.467861112711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02996972308382514</v>
+        <v>0.2564957821988383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.7432702457631</v>
+        <v>78.44978991763674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04387618704199563</v>
+        <v>0.416943338153461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04147748001341545</v>
+        <v>137.4585024743511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7127289861453839</v>
+        <v>0.09002309217440127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4907.499241091653</v>
+        <v>0.07754957531902401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2049912068563444</v>
+        <v>0.4998868672379437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786.5859398137181</v>
+        <v>-0.0003130747286982872</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6415665991768724</v>
+        <v>0.1745945286605744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.2193907720932</v>
+        <v>4.516438456641566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01987943613607887</v>
+        <v>0.6579211283389039</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-196.7499358743216</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9428910229357259</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1725.980751286135</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3478404838440965</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3753.861834148749</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4014568005673026</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.50944664626823</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2442763876566116</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2271.377135820655</v>
+        <v>1300.431050675128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01300419102532285</v>
+        <v>0.3501481082525604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.4226996577011</v>
+        <v>178.310270438365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005515649295087705</v>
+        <v>0.02590089377773124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09452308715288527</v>
+        <v>137.1366779263822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4075647143372674</v>
+        <v>0.022933703940087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6734.538182008194</v>
+        <v>0.108154344004697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04473184050028275</v>
+        <v>0.2483841950752543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2770.12051469649</v>
+        <v>-0.0001828390802997591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08817768202434856</v>
+        <v>0.1400513820427126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.4176070961533</v>
+        <v>2.055881256971482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01073069371116201</v>
+        <v>0.7937893703557792</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2984.610046785629</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2266603115789697</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2898.601027448255</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04932104662961991</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4245.690892569253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1817318595056953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34.34822665580482</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01631680795312003</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2795.522912834289</v>
+        <v>895.578549405885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008039396142529883</v>
+        <v>0.5736741898955461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.204077392822</v>
+        <v>193.0888077238314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01741631339738753</v>
+        <v>0.0285761431244917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08785332433278198</v>
+        <v>104.3019429454596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4128173567077608</v>
+        <v>0.07982159351504949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7064.164660744507</v>
+        <v>-0.0767328982812375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1133797008584874</v>
+        <v>0.3526979108113192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1155.180936554771</v>
+        <v>-3.807449218951765e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4575699718393484</v>
+        <v>0.7450719429921676</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.806545432489</v>
+        <v>-0.4114814350955704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04664915773557796</v>
+        <v>0.9608176726887508</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1987.75008038798</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3547848385436865</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-806.3438348531708</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5709157740254573</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6773.229237037591</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08136453025782892</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>56.45988571394679</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002096529989632531</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2348.749127413677</v>
+        <v>1050.745106442966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01633296149329681</v>
+        <v>0.4915522662476279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.9135883780044</v>
+        <v>22.87751376177948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01818229686106617</v>
+        <v>0.8577153193923794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05209890331340061</v>
+        <v>29.2117505864706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.643103051100286</v>
+        <v>0.7525198277431824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5611.56009233925</v>
+        <v>-0.0162518147799563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1153832767822413</v>
+        <v>0.8710613082582697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2472.776630221306</v>
+        <v>-0.0002419357000652466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455056069773285</v>
+        <v>0.1615863439036643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>226.2653107916398</v>
+        <v>11.05426974210543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02010224172874672</v>
+        <v>0.2786413967578341</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1039.87934038775</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6892472511230638</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-173.4839114329498</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9265659907038867</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4474.741025164865</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2173212445600892</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.59411373711521</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03015763677934861</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4502.947339549935</v>
+        <v>4584.765738282356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000795897795751545</v>
+        <v>0.03439140033514361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.0155029119415</v>
+        <v>73.26572538394208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03036574245491226</v>
+        <v>0.4005179865545671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1380429998646636</v>
+        <v>55.71375239887254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1979660484640988</v>
+        <v>0.4099631497175471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1942.801414154572</v>
+        <v>-0.1225557891333137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6517402832767756</v>
+        <v>0.1953932257828459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-579.7107515059961</v>
+        <v>-0.0002033097491016072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6948915307172638</v>
+        <v>0.1326009931145699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.5989087375754</v>
+        <v>-1.675500699639827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2021619839563423</v>
+        <v>0.8481076782568832</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>634.2803857151703</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7803820596009849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1427.729193392512</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3497882275305646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2018.717056662637</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6406801899257237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.30019722942363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04050454195120498</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2643.707422583999</v>
+        <v>647.2374544963659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005853304187976932</v>
+        <v>0.5749600959386127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.2823463640341</v>
+        <v>230.1139294156232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007231564466771806</v>
+        <v>0.002021362837428421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1190908086548872</v>
+        <v>135.8491647099571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3105000089963802</v>
+        <v>0.007799205187865309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6176.897218263972</v>
+        <v>-0.1199584505773323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09859365132052363</v>
+        <v>0.1399587074665495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281.4408059046059</v>
+        <v>2.851682468473144e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8635723557204871</v>
+        <v>0.7687909555693875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236.5976689548098</v>
+        <v>-2.089982286426377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005273146836285763</v>
+        <v>0.7407294923551486</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2540.955572161118</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1538140776565142</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55.84531545037544</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9631556164577828</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7679.612746433424</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02048257428956342</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.08736950277336</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0002874326786307576</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2861.323660481946</v>
+        <v>402.1455425808836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01052461997386794</v>
+        <v>0.8458258717131967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186.5599705138319</v>
+        <v>-84.00846445159664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03057405946097326</v>
+        <v>0.6391135906948145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01998381497503887</v>
+        <v>25.02977813152177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8736658021298357</v>
+        <v>0.8207957764720168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3863.647368520114</v>
+        <v>-0.1061337528340479</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3577567621357474</v>
+        <v>0.3720313554853667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1671.041518183771</v>
+        <v>-0.0001980627949785434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4149349243501004</v>
+        <v>0.2112809845689908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.036123564578</v>
+        <v>14.36219538384157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06724447540329098</v>
+        <v>0.2992188592546153</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-237.0844408683865</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9269565183045678</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1192.849153833991</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6537245694441627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4674.95818725214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2549792937163828</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.49496985973504</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01147839520675031</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2785.738193058851</v>
+        <v>1864.019790810858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006623211197679481</v>
+        <v>0.3153960192035639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.7110743404406</v>
+        <v>145.5085813205477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02442657331148333</v>
+        <v>0.1274679848176438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05175145628110911</v>
+        <v>93.94318609329687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6173217332825118</v>
+        <v>0.2358693632913188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4724.12269879202</v>
+        <v>-0.02108044405277754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1856078764317338</v>
+        <v>0.8298103641141178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-779.3933673759889</v>
+        <v>-0.0001353106727964849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6263724136561172</v>
+        <v>0.3999911051379823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.4210520235727</v>
+        <v>3.442780522587785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01796995065059185</v>
+        <v>0.7413128756865104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-270.0334251870036</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9281401667610528</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1448.502018476256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4090819001144521</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3117.965677155422</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4584414783473568</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.15949652595708</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05152209671295516</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2544.217569343681</v>
+        <v>1959.600644488486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01029848189169585</v>
+        <v>0.2319073321408993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.0403153376473</v>
+        <v>163.2427489121322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01451329910475036</v>
+        <v>0.06651708657717181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02375286674335927</v>
+        <v>116.0275504956517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8083681783603949</v>
+        <v>0.08682319880282854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6200.42860386055</v>
+        <v>0.02649440904205408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07736250297962213</v>
+        <v>0.7609289774934014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2243.336979485336</v>
+        <v>-0.0001857965661230647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1418756544969717</v>
+        <v>0.2118535082141995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.647598527667</v>
+        <v>1.006552267757407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01543674342286362</v>
+        <v>0.9042670152153438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1264.991345136326</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6294013232564979</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2368.389755156977</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1287182187295789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5098.812977310761</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1623474381998631</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32.03652092039812</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04185056885363585</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4360.942760850583</v>
+        <v>4931.806389328902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001441186174058731</v>
+        <v>0.009547430916575674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.7328918456812</v>
+        <v>55.89152884499487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03639331796170055</v>
+        <v>0.4669405325645871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1220283848226341</v>
+        <v>59.23673220888031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1755123567477796</v>
+        <v>0.3314894789121757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1439.299447914305</v>
+        <v>-0.08250278603654917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6611645172258271</v>
+        <v>0.3612703403336548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2033.554806720545</v>
+        <v>-0.0001473629478904169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1363320398529409</v>
+        <v>0.2909761714788271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.3829498529603</v>
+        <v>-2.208639129575836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06941390470099031</v>
+        <v>0.771997458815969</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1223.352800512064</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5993373848028718</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2541.75657567184</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1007264776521152</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>876.9703155008028</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8184123922169915</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.8942574192224</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.148435504225986</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2594.238947360826</v>
+        <v>1327.71972431199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0124692415587115</v>
+        <v>0.4459383997833363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.329075208527</v>
+        <v>115.7521577591592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01868636445271191</v>
+        <v>0.1964646522043922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001975375928192191</v>
+        <v>133.912486957626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9875779149331354</v>
+        <v>0.06031057629893993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5128.377241359404</v>
+        <v>0.08300986568656166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1663619682702342</v>
+        <v>0.466449806848193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1368.668997853236</v>
+        <v>-0.0001716632002392411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.431639920072039</v>
+        <v>0.2489561586223973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207.8529611673004</v>
+        <v>2.864342003984113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02067273964065602</v>
+        <v>0.7320483994194016</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>404.6818240107714</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8784906536189748</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2294.90828375883</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2084223403212215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2916.568334306059</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4421719659637987</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.37381584491509</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02294553382263927</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2999.785620891246</v>
+        <v>165.2090093644183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006165899002370264</v>
+        <v>0.9195263159870266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.48009278048</v>
+        <v>190.1554877618833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05842939015272552</v>
+        <v>0.02282431876943884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1092923551439562</v>
+        <v>118.5311268325403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3153635308143787</v>
+        <v>0.06367027891229417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5723.071641512237</v>
+        <v>-0.07981536086369534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1622936024822951</v>
+        <v>0.325633873647823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1028.340810624043</v>
+        <v>-1.579171159183865e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5156643912525256</v>
+        <v>0.8929841067913393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.5244279268905</v>
+        <v>2.158039911820566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01296579691741351</v>
+        <v>0.832732610232271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1705.671417878226</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.423579113599612</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-871.656520766327</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5240401015339423</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7584.180093536881</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08195381581534113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59.29532601359283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002094304476392159</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2798.435893681502</v>
+        <v>2267.999938198815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01494880577935712</v>
+        <v>0.2384868055125741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.8094784944971</v>
+        <v>158.7257543412198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02978630649475649</v>
+        <v>0.1145372406731003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.04315830459754416</v>
+        <v>91.26988690652342</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6986671277845762</v>
+        <v>0.2256617788915481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4802.982222702842</v>
+        <v>-0.02133854088411818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2172047930632428</v>
+        <v>0.8323701949542107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1168.416501595377</v>
+        <v>-0.0002407696046707838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.479856507293727</v>
+        <v>0.2361476270372057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.5081790912838</v>
+        <v>3.437753919978086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03295907437622014</v>
+        <v>0.7658706800072581</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2022.87804300221</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5684985580800841</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1549.409205184033</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4018649819451654</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2226.731922850639</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6083603504734749</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>33.87172281458467</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07985593069509986</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3142.48312349483</v>
+        <v>2525.627354123616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004225162908747829</v>
+        <v>0.134522653038259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.4580885370984</v>
+        <v>48.34038644751968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007511125262087641</v>
+        <v>0.6785745634797562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08186839999536183</v>
+        <v>38.12336125294883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3604669326229186</v>
+        <v>0.6499709326172958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5653.233544376728</v>
+        <v>0.02398934662774786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06156240123709981</v>
+        <v>0.7949505756355632</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4413.021116091506</v>
+        <v>-0.0001244201112017283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0108143044732378</v>
+        <v>0.3143421319202557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.8828844056302</v>
+        <v>4.485015850359758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00897214716689072</v>
+        <v>0.6107347786009805</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1818.498657472991</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.416750023307753</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2505.466641605473</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2700538052899401</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6165.456511335925</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05674638927778838</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31.72936031085035</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05610923555992316</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4613.691443167828</v>
+        <v>1908.842022232167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001049474678136804</v>
+        <v>0.3710573170078224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.0497012358415</v>
+        <v>131.9008270819379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05631443930120062</v>
+        <v>0.09767058118285572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1785013767992319</v>
+        <v>106.7309521728532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101811051053633</v>
+        <v>0.07441038318430669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2541.434565534801</v>
+        <v>-0.1121634798595207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6206271095463383</v>
+        <v>0.1808453661781044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.22707605359756</v>
+        <v>-5.129849460113758e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9923688125700377</v>
+        <v>0.6512742207380569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.195225215006</v>
+        <v>-1.124891769713813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.152602498043404</v>
+        <v>0.8923694521436292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1414.399850159944</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4778546151698095</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-712.0411433533611</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5615721285987666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3533.479552328143</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4693756118142931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>51.91930976988971</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005731489129170138</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3759.69114692897</v>
+        <v>3909.556940543347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005302355189961607</v>
+        <v>0.03260161267401872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.3504514674341</v>
+        <v>99.30218413568173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002840100415986833</v>
+        <v>0.2244175906627046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1484202900637069</v>
+        <v>126.1010940091073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1111859890697404</v>
+        <v>0.0814691520547421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.8384912272159</v>
+        <v>-0.1377067328096693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9320129136636426</v>
+        <v>0.1264271060346297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.856974720171365</v>
+        <v>-9.007398415386612e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.997069471492841</v>
+        <v>0.4498255879526515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.8291940032534</v>
+        <v>-4.686241537467851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1237445686370599</v>
+        <v>0.5447728899872741</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-578.5432227365336</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7774144633648705</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-551.8803808388407</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6789188985742923</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>616.7555477817878</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8726687401757131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.42102053831578</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05613560898140632</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3272.200523502222</v>
+        <v>3018.861618464221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001064349853271254</v>
+        <v>0.1463838599446362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>197.6527859595373</v>
+        <v>141.0452590110933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004790354511062988</v>
+        <v>0.4321800436431996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009570243617594648</v>
+        <v>110.1780861594974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9233486638951358</v>
+        <v>0.3683039949150965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2379.920926073519</v>
+        <v>0.0007800904291752897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.458606117543213</v>
+        <v>0.9941063331889129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3276.713766503199</v>
+        <v>-5.600079412858413e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08528379797333929</v>
+        <v>0.7423242821975207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.0159310671137</v>
+        <v>-1.950619191457648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003071230728506129</v>
+        <v>0.8631236490306782</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2820.501974914316</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3677365998032993</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2848.849879572402</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2870682389308334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5520.970726839882</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1414072987700729</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32.40206550157225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1236365295176341</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4228.191397615991</v>
+        <v>3617.555528963567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001383391794043486</v>
+        <v>0.1031081663061754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.4020062266553</v>
+        <v>76.3617863132207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02882606617206919</v>
+        <v>0.3511028528568465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.154189289873077</v>
+        <v>93.95341794287816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1632705463633139</v>
+        <v>0.1044747995107942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1438.436568843386</v>
+        <v>-0.1399398457745384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7399340758036095</v>
+        <v>0.09893405613137633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158.6823861300818</v>
+        <v>-0.0001132082350907221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.918843450731847</v>
+        <v>0.3836430053833434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.9928558881605</v>
+        <v>-2.705190993550644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1640448455537931</v>
+        <v>0.7637982651431059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1059.141259674007</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5860562108126944</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1051.237209591758</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4659576510161463</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-984.2674289142051</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7726226699807313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44.81664760705966</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00838212809706212</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3091.014149910143</v>
+        <v>1772.003858319448</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002988474701110312</v>
+        <v>0.3250278154171355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.5888879493369</v>
+        <v>156.3201426210641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04087808688227887</v>
+        <v>0.1198061701777694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07785696678608917</v>
+        <v>98.52311229196147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4649296808880642</v>
+        <v>0.214953810680056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5410.323272251193</v>
+        <v>-0.03819043096475294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1414544247940817</v>
+        <v>0.7071389669780197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1489.806103714359</v>
+        <v>-0.0001109784900353963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3424815111251888</v>
+        <v>0.4452339639162213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.2348691602465</v>
+        <v>3.4122146112617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03302636982409991</v>
+        <v>0.7463173744605189</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>161.1386915323383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9527442395990007</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1510.208995083494</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3704757469665417</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3913.914153014428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3651311012995643</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>36.59771415809016</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04742098590883848</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2235.472973161617</v>
+        <v>996.8572679663321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0168627571451062</v>
+        <v>0.4792881139121059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.9301090668953</v>
+        <v>192.086760007428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0107472183377303</v>
+        <v>0.01832955537552193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05686422762915605</v>
+        <v>118.7695698527168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6020662662876758</v>
+        <v>0.05211640234571814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6955.839205675195</v>
+        <v>0.1344227798996179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02996180626442989</v>
+        <v>0.1945907782525857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2342.914724407479</v>
+        <v>-0.0001937186531836042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1144780599203879</v>
+        <v>0.1852586108035124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.3987706948876</v>
+        <v>5.716992763377831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003067256481505523</v>
+        <v>0.4617526168913425</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2420.490191422956</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3000796187925768</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3101.258221654083</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04478024568524358</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3148.756996294804</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.360025868387383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>37.11590929568582</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04386726628328599</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Dresden.xlsx
+++ b/outputs/ML_Results/dist_LR/Dresden.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27875887" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ27969208" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ28065004" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28160349" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ28253356" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ28343801" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ28444063" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ28539199" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ28636513" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ28730513" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ28823288" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ28914535" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ29007903" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ29111205" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ29224655" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ29370620" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ29493938" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ29631870" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ29727765" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ29851617" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ30024752" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ30132890" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ30233621" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ30336098" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ30432494" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ30533958" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ30647573" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ30749290" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ30861205" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ30963433" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ31119949" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ31236372" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ31343716" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ31451094" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ31548607" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ31680938" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ31963294" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ32062057" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ32159519" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ32262815" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ32363971" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ32462732" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ32562457" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ32665996" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ32762504" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ32864360" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ32960830" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ33060386" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ33157043" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ33256454" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ17330495" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ17420466" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ17505979" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ17596502" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ17691369" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ17777153" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ17864662" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ17950173" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ18036176" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ18122686" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ18210197" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ18296988" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ18385354" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ18472188" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ18554823" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ18642826" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ18732335" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ18818054" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ18907563" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ18994074" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ19082836" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ19168347" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ19262797" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ19350306" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ19441458" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ19529160" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ19615670" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ19710372" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ19810367" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ19917905" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ20044028" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ20175243" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ20267752" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ20351261" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ20437732" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ20526241" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ20612753" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ20702865" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ20803182" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ20904323" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ21002149" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ21101980" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ21201120" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ21299429" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ21398630" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ21494128" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ21595710" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ21693330" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ21792094" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ21890828" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2922.623170453114</v>
+        <v>1608.567856832214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1256412404483973</v>
+        <v>0.3311383600260699</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.31338379873642</v>
+        <v>76.06401117412349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3119741816332236</v>
+        <v>0.4120853414322388</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.92495206071183</v>
+        <v>109.1087438284247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2214714743989384</v>
+        <v>0.1716799461865292</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01956609795150366</v>
+        <v>-5.628366072223088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8363977911293433</v>
+        <v>0.4963109106652044</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.352769409417164e-05</v>
+        <v>-51.53670843757271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5497155583761103</v>
+        <v>0.7187881766806026</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8317777957702006</v>
+        <v>5.764429806135034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9202938098282648</v>
+        <v>0.470519191092472</v>
       </c>
     </row>
     <row r="8">
@@ -585,49 +585,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2875.332958226429</v>
+        <v>-22.04979812547595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3338897992065127</v>
+        <v>0.4674822939499541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2675.133238791252</v>
+        <v>35.43796713364711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.171275861732541</v>
+        <v>0.379273704307178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5274.584687321865</v>
+        <v>37.01071069269069</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2026606249708017</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>31.02274308568842</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1709688010192457</v>
+        <v>0.1145153238584738</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2023.634897864114</v>
+        <v>1541.034793109052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2098169827051343</v>
+        <v>0.2709960948512496</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.1500210531938</v>
+        <v>101.1740531476233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1776336365937124</v>
+        <v>0.2195987662413215</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.6221123872049</v>
+        <v>104.2154374348658</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1623454834934754</v>
+        <v>0.1429679323776249</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03911631641863944</v>
+        <v>-7.284726551647955</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6651195972722572</v>
+        <v>0.3349691004888122</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.928441970302325e-05</v>
+        <v>-84.60057084676549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4339543500774243</v>
+        <v>0.4880329711812917</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.784621072711865</v>
+        <v>0.2321644948123875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7610403212639096</v>
+        <v>0.9764660937484235</v>
       </c>
     </row>
     <row r="8">
@@ -751,49 +738,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2106.927603972493</v>
+        <v>-21.03762332791445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4243958513255063</v>
+        <v>0.4150053394948775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1080.642559195044</v>
+        <v>67.67144319569519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4921379229992724</v>
+        <v>0.09536790600889883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7286.209652322716</v>
+        <v>46.13322214321266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0867859608700236</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>45.43806770216523</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01228146848793888</v>
+        <v>0.009226689377881892</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.6026043100537</v>
+        <v>314.0659435563684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9144051456287151</v>
+        <v>0.794717095721226</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>207.6310759387136</v>
+        <v>207.2735084155225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01578830088795458</v>
+        <v>0.01175867332509189</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.1864202917325</v>
+        <v>167.2580144852182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01310280844654761</v>
+        <v>0.009655513655044632</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1132295464938873</v>
+        <v>-10.26136906537797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1617335583782055</v>
+        <v>0.07048540349414413</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.672562295285213e-05</v>
+        <v>35.89861607612568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7230534886841495</v>
+        <v>0.7538726939856069</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.900329712943535</v>
+        <v>3.274773535592109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5740195443884129</v>
+        <v>0.577869021291528</v>
       </c>
     </row>
     <row r="8">
@@ -917,49 +891,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1544.51785376999</v>
+        <v>-15.03957642122897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4369072349370947</v>
+        <v>0.4262408311872982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.6444212808256</v>
+        <v>34.73603503015866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8444595262237446</v>
+        <v>0.2219317280200438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3298.799055578555</v>
+        <v>52.80243914924855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2861513217398747</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>53.64910682222046</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003406528453420335</v>
+        <v>0.001805211537835288</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.106796377646</v>
+        <v>1305.597656709542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5518728465671252</v>
+        <v>0.4412920356864671</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.546660391105888</v>
+        <v>15.29284653023552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9920285046304206</v>
+        <v>0.8974412193125121</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.239321026046241</v>
+        <v>14.61952259773636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9596531842361575</v>
+        <v>0.8891659515427313</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05820106890656324</v>
+        <v>-4.864587795767385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6263069225494893</v>
+        <v>0.612618398639227</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002344473289807999</v>
+        <v>-228.508769147135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2469988663976328</v>
+        <v>0.228103121768935</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.32671406716699</v>
+        <v>11.12976856358755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4043799692905492</v>
+        <v>0.3454350150179292</v>
       </c>
     </row>
     <row r="8">
@@ -1083,49 +1044,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-78.29766306300917</v>
+        <v>-1.004782360053056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9783844569862511</v>
+        <v>0.9709675103082309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350.3794583753051</v>
+        <v>35.00291804811837</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8821769247662725</v>
+        <v>0.4319772915772386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3387.955271392898</v>
+        <v>44.67990016229094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4723122198242306</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>45.3240046716192</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03587817945009229</v>
+        <v>0.02681184029633385</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2368.356173794131</v>
+        <v>1682.575183446349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14226870694352</v>
+        <v>0.2303005088028212</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.250737931681</v>
+        <v>126.6009281270111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08414070365773198</v>
+        <v>0.1139332057448365</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.33097279505824</v>
+        <v>85.74902299099975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2094702589398941</v>
+        <v>0.1839305267404027</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05457959019812142</v>
+        <v>-8.984136573961667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5304039954398383</v>
+        <v>0.2611173819089017</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001789092885294385</v>
+        <v>-135.8691946432962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2434662769049128</v>
+        <v>0.3462648091326969</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1184,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.458040665522695</v>
+        <v>0.5700408184524832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.758883320824886</v>
+        <v>0.9380399896705409</v>
       </c>
     </row>
     <row r="8">
@@ -1249,49 +1197,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-345.1437201000954</v>
+        <v>-9.879467023238057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9118568819278567</v>
+        <v>0.7454900649682701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1438.035771441456</v>
+        <v>65.28831465958419</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3433341965181903</v>
+        <v>0.1175182275436927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6811.948868474987</v>
+        <v>44.45121378749538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1069403242302538</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>42.62617888091002</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.009265346456512577</v>
+        <v>0.006195365391732661</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2165.033425726231</v>
+        <v>2707.067146900476</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3309860769295023</v>
+        <v>0.2709572363230035</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.0672505790358</v>
+        <v>92.58773470930009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06489006676366356</v>
+        <v>0.2688700889969757</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.2462503455875</v>
+        <v>88.70649252267219</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07908972032030566</v>
+        <v>0.2049002719049918</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07236663902336515</v>
+        <v>-10.35048217139986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5585856667285156</v>
+        <v>0.2789812536608507</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001263349420735615</v>
+        <v>-118.0519294511555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254208031254706</v>
+        <v>0.3317072007696614</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1337,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.196333031409772</v>
+        <v>2.254840556024654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8804561209346131</v>
+        <v>0.7934409801803564</v>
       </c>
     </row>
     <row r="8">
@@ -1415,49 +1350,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.5534422285918</v>
+        <v>5.511364750149674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.655575661299052</v>
+        <v>0.7992726941328256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2859.205422897548</v>
+        <v>-1.675260080293015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06755821436164561</v>
+        <v>0.9690596819969203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3001.089654937172</v>
+        <v>33.03982824522924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481134758363814</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>36.86875264947064</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01858460654245233</v>
+        <v>0.04504968674912909</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3161.896647801381</v>
+        <v>1772.675592977285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07692677577810539</v>
+        <v>0.2709778387791479</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.2951923349133</v>
+        <v>105.9546288625028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2245107846242142</v>
+        <v>0.2573742546368155</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.60056766316015</v>
+        <v>77.12368936753714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2963456321072934</v>
+        <v>0.2738655035686517</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01062069430616491</v>
+        <v>-11.45550314140206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9101265585878529</v>
+        <v>0.1565874526316202</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.930889086712174e-05</v>
+        <v>-49.72199045156663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4838936159579608</v>
+        <v>0.710403085189333</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1490,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.792382862849262</v>
+        <v>8.826416790125666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.746239563462429</v>
+        <v>0.3070272882656839</v>
       </c>
     </row>
     <row r="8">
@@ -1581,49 +1503,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2363.468296458254</v>
+        <v>-12.83755066668436</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3769991746513187</v>
+        <v>0.6418947845953573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2935.805766651833</v>
+        <v>38.67279436313823</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1039117353666174</v>
+        <v>0.3106439122006203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5335.623658416293</v>
+        <v>26.33189065973688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1535782846298874</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>24.63691409265586</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2169235520521378</v>
+        <v>0.2180757154080861</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4318.916808673942</v>
+        <v>4266.682070955613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01188530583003663</v>
+        <v>0.009190485039770964</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.3711235474036</v>
+        <v>101.3156397851127</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1582024253771093</v>
+        <v>0.1537055294135999</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.46412755023465</v>
+        <v>70.11658144370438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1739431296440899</v>
+        <v>0.159035653127402</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1785250791338106</v>
+        <v>-19.77570823588556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04610602062106465</v>
+        <v>0.005392145532445582</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001799259822882486</v>
+        <v>-175.2383752251276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09058957185105787</v>
+        <v>0.08303256602524049</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3510729463898503</v>
+        <v>0.2628530523135737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9533652989081772</v>
+        <v>0.9621774452993649</v>
       </c>
     </row>
     <row r="8">
@@ -1747,49 +1656,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.119986448997</v>
+        <v>16.65034079539365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3625133105447368</v>
+        <v>0.3455453210477657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-416.0702145582782</v>
+        <v>-31.73284206060231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7152751659028034</v>
+        <v>0.3366526859904695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2772.512626458738</v>
+        <v>26.47963687355091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4399802216701862</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.18017325059758</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03298044907143954</v>
+        <v>0.02474187373811389</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3333.924009670829</v>
+        <v>650.5143811257822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0858454325589046</v>
+        <v>0.7626570330893572</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.56275698931233</v>
+        <v>112.4122458883832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3549831341737421</v>
+        <v>0.2538672879159792</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.85610248990042</v>
+        <v>120.4257495247848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1406706201216632</v>
+        <v>0.1522183497435776</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1546939718016414</v>
+        <v>-3.419051828858002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1223242503931829</v>
+        <v>0.7308665903717544</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002027912836378587</v>
+        <v>-88.89250896483054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09191787577199263</v>
+        <v>0.5377917862770241</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1796,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.809358868633169</v>
+        <v>8.096004414312706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6955747819915064</v>
+        <v>0.3469582523215591</v>
       </c>
     </row>
     <row r="8">
@@ -1913,49 +1809,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2781.743547431168</v>
+        <v>-2.966837746994116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2621606612020725</v>
+        <v>0.9227709610619051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5911.972745869993</v>
+        <v>35.24230084080075</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007423184901183377</v>
+        <v>0.384317462992154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7237.348893775851</v>
+        <v>41.34084189629674</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04035644557822712</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>42.5809483232655</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02757586225569615</v>
+        <v>0.0918246075076809</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.274871371571</v>
+        <v>2564.840412075684</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09767099833229452</v>
+        <v>0.0387123898213776</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-224.8969034844832</v>
+        <v>-54.9285462693239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07280130766363416</v>
+        <v>0.5060234234721677</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-224.1937084029548</v>
+        <v>-84.09469516856814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04607690744466707</v>
+        <v>0.294326993783609</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2495833222616265</v>
+        <v>-12.92218091453917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008162745434333769</v>
+        <v>0.03034492606084913</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003979414501190499</v>
+        <v>-311.5934922897206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00497824309694192</v>
+        <v>0.02013105504381567</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +1949,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.89276552269588</v>
+        <v>0.583234288536076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2219823934728173</v>
+        <v>0.9232525421606657</v>
       </c>
     </row>
     <row r="8">
@@ -2079,49 +1962,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3590.507565614464</v>
+        <v>-22.61850061731012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0930667688977455</v>
+        <v>0.28492689929127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3127.58349339433</v>
+        <v>107.9607876456592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07745256374175592</v>
+        <v>0.004640585079416033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11838.44689634179</v>
+        <v>61.48764665916062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001627842769246481</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>78.2653630289479</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001641941622221953</v>
+        <v>0.000348657113113728</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.973765034293</v>
+        <v>1006.553439701322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3650311685761644</v>
+        <v>0.5553585182137917</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.3642462703264</v>
+        <v>114.882865891124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1720067545613168</v>
+        <v>0.2195716507196664</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.651579480415</v>
+        <v>105.4254203087872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1550767998399542</v>
+        <v>0.1541775212914767</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01657994553465553</v>
+        <v>-6.014926399880999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8731530259176652</v>
+        <v>0.5067616611611705</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001425184590071033</v>
+        <v>-138.4400598746128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4769088418870399</v>
+        <v>0.4845243689173802</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2102,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.492474974812502</v>
+        <v>9.017608681763285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7966120218612565</v>
+        <v>0.4501135662841442</v>
       </c>
     </row>
     <row r="8">
@@ -2245,49 +2115,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-294.373599014476</v>
+        <v>-1.760305522148769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9175750499991826</v>
+        <v>0.9500851586746824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1494.832974529932</v>
+        <v>27.26106743616316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3948406258249526</v>
+        <v>0.5250556485991857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3824.345424828727</v>
+        <v>39.37128675475361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4007613173397718</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>38.81303310984035</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05071159646760137</v>
+        <v>0.04461215585132826</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1666.58993450219</v>
+        <v>529.604065809428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.408818984368586</v>
+        <v>0.7598407951261859</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.9299034370765</v>
+        <v>142.9032432673082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1079374860478046</v>
+        <v>0.1588540833442225</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.0405657859118</v>
+        <v>118.021343244549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1400030543822149</v>
+        <v>0.123262662983067</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05023337709163188</v>
+        <v>-3.748141578330678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6836036386695814</v>
+        <v>0.6970871257045719</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001224253966309614</v>
+        <v>-86.08678040986649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3905499767880746</v>
+        <v>0.5358993208921154</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2255,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.833027235310873</v>
+        <v>9.674189862469305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8784623458855301</v>
+        <v>0.336220091575843</v>
       </c>
     </row>
     <row r="8">
@@ -2411,49 +2268,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>514.61722155191</v>
+        <v>8.707637247923543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8503767197589888</v>
+        <v>0.7510487355101575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2287.949533177957</v>
+        <v>25.82075266972926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.273935440293646</v>
+        <v>0.5188360703824297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3557.446756212183</v>
+        <v>37.10225007951635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3842366511423593</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>39.47480717364735</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03643507187126955</v>
+        <v>0.04599153940018142</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759.1577414663061</v>
+        <v>323.1689100337735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.652444134099516</v>
+        <v>0.8225254396791434</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213.7959213861328</v>
+        <v>201.7580461515082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03745419783818131</v>
+        <v>0.0364231613821692</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.2861473143379</v>
+        <v>107.974189667386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1391416833333962</v>
+        <v>0.1100127278345639</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02322189863707635</v>
+        <v>-5.062460556844757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7999980897052895</v>
+        <v>0.5021225031317158</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.022313933184119e-05</v>
+        <v>0.5771177776863397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8766957920413082</v>
+        <v>0.9962007035599343</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2408,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.132437992120217</v>
+        <v>5.383833581695301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7286130820496828</v>
+        <v>0.4942480074116057</v>
       </c>
     </row>
     <row r="8">
@@ -2577,49 +2421,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1491.338330588509</v>
+        <v>-15.80676307685161</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5477365937937411</v>
+        <v>0.5114833757363392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-868.0024215947396</v>
+        <v>19.99035375188856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.583185244476789</v>
+        <v>0.5724759911622167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2279.193593113985</v>
+        <v>55.6391200819679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5364664276031346</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>54.94953793478636</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004902711235815929</v>
+        <v>0.003307743218765927</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2240.425561857513</v>
+        <v>594.9130121822873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1381802120380999</v>
+        <v>0.6490797754083966</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.4958447972517</v>
+        <v>131.4551858536422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09972793073364576</v>
+        <v>0.09049296705521502</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.25966295821615</v>
+        <v>102.8898456532803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09599147835389298</v>
+        <v>0.06905175004293415</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06084424079931494</v>
+        <v>-4.920478991006419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.480430298560871</v>
+        <v>0.4978946727920049</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.402685761182318e-05</v>
+        <v>2.646179581735851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5204817238378142</v>
+        <v>0.9823854136445249</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2561,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7982472459959311</v>
+        <v>4.219634177383904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9004736265997496</v>
+        <v>0.5223512646667556</v>
       </c>
     </row>
     <row r="8">
@@ -2743,49 +2574,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3710.732027686228</v>
+        <v>-33.97207937499847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1596262812035888</v>
+        <v>0.2402815543817647</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2987.445008596281</v>
+        <v>62.65878456552157</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0692556984007441</v>
+        <v>0.0745335911469705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7834.147434303555</v>
+        <v>52.25979454362991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02303798229936584</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>43.49176918385928</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004266743168862594</v>
+        <v>0.001411406207589827</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2831,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2349.071860699235</v>
+        <v>1570.296015070378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2008748254926062</v>
+        <v>0.3482842592357647</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.4652614644599</v>
+        <v>71.98573717305402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3502356439475984</v>
+        <v>0.4516420958464281</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.6717214170361</v>
+        <v>131.6236344981955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09603696733317325</v>
+        <v>0.1022148982487993</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03468313331164652</v>
+        <v>-3.572669422265148</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7569708620836637</v>
+        <v>0.7036468635103416</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003015244701244644</v>
+        <v>-250.7511265515657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2019509418432023</v>
+        <v>0.2779025667128219</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.310010231490232</v>
+        <v>8.523647931201495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6584406221707662</v>
+        <v>0.3552409740219374</v>
       </c>
     </row>
     <row r="8">
@@ -2909,49 +2727,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>794.40692230475</v>
+        <v>7.295329664956938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7724048439676725</v>
+        <v>0.7926807252886439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1864.733578809528</v>
+        <v>24.25069973927235</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2751444925443019</v>
+        <v>0.5677345925802366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3389.087847008799</v>
+        <v>28.99995844797873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.432464202894345</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.89891803230462</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3092607787789281</v>
+        <v>0.2776185059601401</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1984.002265871485</v>
+        <v>1565.04539374057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2855152654125671</v>
+        <v>0.3392720034367788</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.2670784710428</v>
+        <v>166.9302596917952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07477049667287311</v>
+        <v>0.0773399121802356</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.7437963611051</v>
+        <v>133.8751404224024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09966652986093556</v>
+        <v>0.07713925381972185</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05829494148376652</v>
+        <v>-9.442186182359215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5489369948873685</v>
+        <v>0.194308013195056</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.167817884049294e-05</v>
+        <v>-44.10114579780429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6490993201805935</v>
+        <v>0.7304440156592508</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +2867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.399977994751527</v>
+        <v>1.030280621453997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9080255718413278</v>
+        <v>0.925486013100816</v>
       </c>
     </row>
     <row r="8">
@@ -3075,49 +2880,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1205.354508639386</v>
+        <v>-12.43349337410331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6269086843385479</v>
+        <v>0.6060638374824558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-941.3438464601663</v>
+        <v>44.44304584994778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5744732860919558</v>
+        <v>0.2440994370305853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4646.489234243803</v>
+        <v>39.08935246964361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239733192588791</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>39.03336196821301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02094481758742429</v>
+        <v>0.01715391393588617</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3163,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4185.982247835193</v>
+        <v>4346.053237648877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04520486213340717</v>
+        <v>0.02970697533176372</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-113.2974958460634</v>
+        <v>-78.2953166643581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3774330189356007</v>
+        <v>0.4116640931039893</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-43.91554051292707</v>
+        <v>-21.70955555951417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6292285606221248</v>
+        <v>0.764383359967294</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1820474849835906</v>
+        <v>-15.30703859451132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07662120668345666</v>
+        <v>0.03626805431042035</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002538299492925007</v>
+        <v>-241.3663893333942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06096854388445095</v>
+        <v>0.05739437560024403</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3020,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.404280436909218</v>
+        <v>2.142099968699299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6083483391512867</v>
+        <v>0.7446201629948139</v>
       </c>
     </row>
     <row r="8">
@@ -3241,49 +3033,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-520.6509859128455</v>
+        <v>-4.815000361248337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7925506854501292</v>
+        <v>0.801183007871596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>774.6450291717756</v>
+        <v>-7.538369811655969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6645585333339279</v>
+        <v>0.8471756990534766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1072.623188862381</v>
+        <v>39.48937629880135</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7942748054548383</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>41.13791051557007</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01983292042330302</v>
+        <v>0.01676224995907869</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3329,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470.551324197513</v>
+        <v>639.2484507233294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3667843470039742</v>
+        <v>0.6551093693114229</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.7109715766526</v>
+        <v>190.5473190117875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02714559951113906</v>
+        <v>0.03554696099324012</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.15756779831821</v>
+        <v>102.994359350682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1496466907518355</v>
+        <v>0.1331135341958555</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01104469461977875</v>
+        <v>-6.133877562591024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8990225960007565</v>
+        <v>0.4182909713168859</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001243179770905856</v>
+        <v>-88.60796308319556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3398258027757581</v>
+        <v>0.4814176898611534</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3173,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.812083188196112</v>
+        <v>9.676897479171771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5857567445777621</v>
+        <v>0.2199733639479767</v>
       </c>
     </row>
     <row r="8">
@@ -3407,49 +3186,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.496380320023</v>
+        <v>18.01848793489387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5032320340982781</v>
+        <v>0.4722581061772362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1712.065357610707</v>
+        <v>29.29927942048232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2813589092809134</v>
+        <v>0.4153857723900223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4016.198374719892</v>
+        <v>29.14793872452968</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2837063766732603</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>29.12160581204729</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06783441240540405</v>
+        <v>0.06829751761823137</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3495,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1442.247875400666</v>
+        <v>-101.9141615990193</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4147683722356701</v>
+        <v>0.9440204687803211</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.8851914493896</v>
+        <v>165.982868624346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08461423496890591</v>
+        <v>0.1049363339410232</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.92655343589227</v>
+        <v>117.5074681264362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1153847611900135</v>
+        <v>0.06794086511172202</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0160959227444223</v>
+        <v>-7.590000625099307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8549496559415496</v>
+        <v>0.2527726927038762</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.653368466115088e-05</v>
+        <v>-9.031750407187019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6928992894584487</v>
+        <v>0.9400648866681758</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.015734878590138</v>
+        <v>10.92041450254789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6299239046117346</v>
+        <v>0.2864420208253157</v>
       </c>
     </row>
     <row r="8">
@@ -3573,49 +3339,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1546.522822511586</v>
+        <v>-5.351650728218033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4983336671566286</v>
+        <v>0.8126326081646223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2536.574056109308</v>
+        <v>29.90345394425789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1626636456504569</v>
+        <v>0.3499407383542942</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4720.969004186451</v>
+        <v>47.3214891437979</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1617517780621854</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>39.22489055881715</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02249391531158205</v>
+        <v>0.006663150653395534</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4083.897078055515</v>
+        <v>4347.86106270583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02614634675280605</v>
+        <v>0.01324375328445464</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-92.33062264944635</v>
+        <v>-31.12777463463593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5043493106666794</v>
+        <v>0.7385560081836933</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-81.12289465851535</v>
+        <v>-41.77769764633436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4395779480362563</v>
+        <v>0.6033678886012732</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2274539375679113</v>
+        <v>-18.5055442287418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03376987247549146</v>
+        <v>0.01440223718001623</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002958480842363637</v>
+        <v>-276.0765247743715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04389861790157336</v>
+        <v>0.04464965860215789</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.943213447140653</v>
+        <v>5.071125699761613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3449721258186408</v>
+        <v>0.4555027242195727</v>
       </c>
     </row>
     <row r="8">
@@ -3739,49 +3492,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682.3462613733573</v>
+        <v>8.848757973012823</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7484581616063548</v>
+        <v>0.6659800762743111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1176.208939087873</v>
+        <v>-18.53441663274094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5356073683287232</v>
+        <v>0.6245210698999555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2398.071148955905</v>
+        <v>34.57854591664076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5489839230868101</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>38.22551301247316</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03046026431444122</v>
+        <v>0.02901356444648392</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1735.90614524279</v>
+        <v>1239.410472131007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2827082105675592</v>
+        <v>0.4178409550430481</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174.5824213973609</v>
+        <v>170.6886678781946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04790990085465915</v>
+        <v>0.05159419743908492</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.281805757176</v>
+        <v>131.1528458953223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0534579272487369</v>
+        <v>0.05315728650384172</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01286483985345732</v>
+        <v>-7.251094239963983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9085683229918927</v>
+        <v>0.3574322307369546</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001286273789457539</v>
+        <v>-85.99563216381716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3666802121319837</v>
+        <v>0.5261102574478187</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3632,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6997144919847642</v>
+        <v>3.069634376319712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9315783428624284</v>
+        <v>0.6971472211650545</v>
       </c>
     </row>
     <row r="8">
@@ -3905,49 +3645,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>736.705012416759</v>
+        <v>1.533619662570182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7864377156002673</v>
+        <v>0.9541786342756049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1790.713099552754</v>
+        <v>36.61059546496026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3040286370959178</v>
+        <v>0.300030274741752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3821.73069797652</v>
+        <v>39.38067436889538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2796397381975778</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>38.59739095465593</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01634312406417323</v>
+        <v>0.01408229117799378</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3993,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2217.812779978499</v>
+        <v>1421.834584878225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1461873502029769</v>
+        <v>0.3337152664136123</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.00612121055701</v>
+        <v>73.39331242722022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2720575901617278</v>
+        <v>0.3775730750058973</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.4916645765874</v>
+        <v>127.9065325865647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04850631499459897</v>
+        <v>0.06960531933915973</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005176513868438537</v>
+        <v>-7.692960255500836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9568443446443693</v>
+        <v>0.3708576111998672</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000217276273138826</v>
+        <v>-158.7333525065899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2574172304028355</v>
+        <v>0.4173804986786351</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +3785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.678374094251339</v>
+        <v>-0.2764213710973067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6110841052605958</v>
+        <v>0.9760360888543498</v>
       </c>
     </row>
     <row r="8">
@@ -4071,49 +3798,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1894.037336292706</v>
+        <v>-19.82076667423281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4507757068977719</v>
+        <v>0.4545591437668803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2125.19362781004</v>
+        <v>87.09697348972949</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1352497481113685</v>
+        <v>0.08026413212527705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9730.796512048215</v>
+        <v>45.62703543707569</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04648154578350569</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>44.01619259710114</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01907130991840516</v>
+        <v>0.01979038429653032</v>
       </c>
     </row>
   </sheetData>
@@ -4127,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2327.897581820165</v>
+        <v>1806.630138590502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1505166990129182</v>
+        <v>0.2074557190088554</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.4834578111729</v>
+        <v>166.2991563585348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0616358857440849</v>
+        <v>0.0644909297819887</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.9793966631428</v>
+        <v>125.5562790734923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1174037472445741</v>
+        <v>0.09284927044770198</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05687966985508575</v>
+        <v>-10.39978463846094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5312507359565879</v>
+        <v>0.1422233071901134</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001339871975733797</v>
+        <v>-91.10984761927511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3647744257035509</v>
+        <v>0.4984974713540897</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +3938,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5979911699727296</v>
+        <v>1.509959631028934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9439783667269959</v>
+        <v>0.8502126327479602</v>
       </c>
     </row>
     <row r="8">
@@ -4237,49 +3951,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-454.7118119069351</v>
+        <v>-6.400661494299406</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8550834883421838</v>
+        <v>0.7936167291013134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1274.39243687929</v>
+        <v>39.29956091036587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4241259677320431</v>
+        <v>0.3057489181765233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4237.656769211826</v>
+        <v>37.0527173501694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2805492728996392</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>36.29657760087725</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02463354853620203</v>
+        <v>0.01965319611878505</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4325,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1503.699297835845</v>
+        <v>1110.839225507827</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4246343263538183</v>
+        <v>0.4908833719626102</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.1308886088814</v>
+        <v>132.3462926760103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1460320567537831</v>
+        <v>0.1433002679344027</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.4685417495913</v>
+        <v>124.727500015766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1143926384125526</v>
+        <v>0.08977741419984619</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007589932810231015</v>
+        <v>-2.553216992094878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9397148881656587</v>
+        <v>0.7758254902977268</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.442422915348161e-05</v>
+        <v>-63.92330390115444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5664854402359218</v>
+        <v>0.6369465056089161</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4091,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.846355511134959</v>
+        <v>4.956800162018808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7590647438195457</v>
+        <v>0.5279017520315605</v>
       </c>
     </row>
     <row r="8">
@@ -4403,49 +4104,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-924.0002870298413</v>
+        <v>-9.727596669717684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7401494683721132</v>
+        <v>0.7181947242232443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-897.2577065969317</v>
+        <v>34.04333070042901</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6466546426651114</v>
+        <v>0.3672028050201293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3828.605576628528</v>
+        <v>38.33929276600375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.341449173235483</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>39.47183722306184</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07269292560356028</v>
+        <v>0.06863078503253048</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5214.061833777112</v>
+        <v>4766.268159601615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04230523936184787</v>
+        <v>0.04878012383355627</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.43372100217675</v>
+        <v>40.70618692678696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4888296515480945</v>
+        <v>0.6408996756699453</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.28922788139562</v>
+        <v>58.80068631578808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3908575801640307</v>
+        <v>0.3942636545626282</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09037209144863217</v>
+        <v>-13.05128542797182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3695902368332877</v>
+        <v>0.1380936299613169</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001421670967175315</v>
+        <v>-122.1897724297207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2818294092377313</v>
+        <v>0.3346077379657885</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4244,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.596260759811173</v>
+        <v>-2.596701849293396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5171875036510909</v>
+        <v>0.7638773431898487</v>
       </c>
     </row>
     <row r="8">
@@ -4569,49 +4257,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-976.111028065081</v>
+        <v>-10.66040476906612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6822392256387448</v>
+        <v>0.6494805860476129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1291.727684712526</v>
+        <v>-34.78833981002069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4294245271531886</v>
+        <v>0.4665698742225775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2426.278706043842</v>
+        <v>29.20070453214785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6276598264818166</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>30.23887534899626</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08594849394166244</v>
+        <v>0.08870636532284427</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3588.182426031022</v>
+        <v>2048.22542126137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03335144405733666</v>
+        <v>0.1887233486767171</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.29271908748689</v>
+        <v>87.1788121454104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2657569674817646</v>
+        <v>0.3245742148141892</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.72796661266591</v>
+        <v>80.43222876322397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3383944576509473</v>
+        <v>0.3086080553959571</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02587441938463375</v>
+        <v>-13.06327127111045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7487121603323005</v>
+        <v>0.08828851924685592</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001049074420965537</v>
+        <v>-67.5899963066006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3579957318536202</v>
+        <v>0.5929301870681565</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.585309984157831</v>
+        <v>-0.719942258398067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4447563931284489</v>
+        <v>0.9371600296903065</v>
       </c>
     </row>
     <row r="8">
@@ -4735,49 +4410,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4344.924629382314</v>
+        <v>-31.23676912209692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1163800505140692</v>
+        <v>0.2917774394194472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3081.129426967349</v>
+        <v>90.32171565657477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05528696140764985</v>
+        <v>0.06343741353102068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10633.80881638293</v>
+        <v>41.6152841631879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02084920581715921</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>37.38803815942734</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02306000523776024</v>
+        <v>0.02316285295125298</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1110.446931099583</v>
+        <v>1111.896249436907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4679097041157499</v>
+        <v>0.4091775919566998</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.28196453307373</v>
+        <v>14.48732654954256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9130770319430055</v>
+        <v>0.8783282815148316</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.65161709636192</v>
+        <v>19.77165400452395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8314377675167333</v>
+        <v>0.790168147187336</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02955487539574492</v>
+        <v>-2.941438799153639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7668547396301711</v>
+        <v>0.7032467196267735</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002058944312571119</v>
+        <v>-205.8142287096682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239533760411087</v>
+        <v>0.2117152907315515</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4550,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.765335419834415</v>
+        <v>9.75081139278128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3803157877294608</v>
+        <v>0.27558595451878</v>
       </c>
     </row>
     <row r="8">
@@ -4901,49 +4563,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.941200970974</v>
+        <v>1.642443802395931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.942452596902249</v>
+        <v>0.9398070084108168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.548950182897897</v>
+        <v>52.04216295177707</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9980933980681113</v>
+        <v>0.1580906211203433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5203.142388155195</v>
+        <v>40.70366512854163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1787624041173877</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>40.71498281468668</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02391547063586818</v>
+        <v>0.01464354979535633</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.8132251686784</v>
+        <v>366.7725325578294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5745240299034218</v>
+        <v>0.7999046672570085</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.5125700213779</v>
+        <v>165.6747816609306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05529741927438544</v>
+        <v>0.05529982722677926</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.5614784220124</v>
+        <v>114.0183287169015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08401642952858969</v>
+        <v>0.0740229376284456</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05858373782158915</v>
+        <v>-9.865871039649695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4932849593012888</v>
+        <v>0.136108762532777</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001137864804292692</v>
+        <v>-77.36217244244199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4247234996150819</v>
+        <v>0.5515305269539408</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +4703,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.062693452255822</v>
+        <v>7.74851524426497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5199423397315004</v>
+        <v>0.2629174079475436</v>
       </c>
     </row>
     <row r="8">
@@ -5067,49 +4716,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>436.3767562158737</v>
+        <v>3.82148395317283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8490261023572143</v>
+        <v>0.8649994652292052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1100.707432678591</v>
+        <v>11.97416605583321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4697116104476741</v>
+        <v>0.7299968245289769</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1798.067156855839</v>
+        <v>57.22612826580267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6214105797430558</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>55.15363958115564</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.008186636754504506</v>
+        <v>0.004913824527266501</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5155,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1401.48513764976</v>
+        <v>937.9855145715746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3840999145363817</v>
+        <v>0.5154917999378956</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.9712572660366</v>
+        <v>193.6701082509259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03011003737489209</v>
+        <v>0.02802393630821192</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.2323457714274</v>
+        <v>146.175202921479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04156636404565901</v>
+        <v>0.02990088527703404</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009309987661808905</v>
+        <v>-3.903122128604267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9271203124362456</v>
+        <v>0.6137138054845872</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000134947447289097</v>
+        <v>-97.71397608574578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3609459292472221</v>
+        <v>0.4695812873537915</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +4856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.969485994228187</v>
+        <v>4.106630136642206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8049092101285836</v>
+        <v>0.5758077178984635</v>
       </c>
     </row>
     <row r="8">
@@ -5233,49 +4869,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.542933841401</v>
+        <v>12.26416403040251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6184381959994332</v>
+        <v>0.6738946017365639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1262.228814502565</v>
+        <v>31.61479798203851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4619942839323637</v>
+        <v>0.3350123152116186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3571.921492542558</v>
+        <v>36.05988974600895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2940833995896704</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>35.96033465584217</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02835833611157906</v>
+        <v>0.02465255116077382</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5321,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2797.818201809724</v>
+        <v>1760.465435263367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1288693118865114</v>
+        <v>0.2258214477998071</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.1576131785308</v>
+        <v>57.91554788462639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3508501008148132</v>
+        <v>0.6984186742127181</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.857659393959</v>
+        <v>42.99038348811865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3758272194049133</v>
+        <v>0.7218528739568458</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01765172814229138</v>
+        <v>-10.32784172908619</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8707330288985042</v>
+        <v>0.1435120068691244</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.614331872050199e-05</v>
+        <v>-103.7318128550694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8860435222300185</v>
+        <v>0.5339851893229597</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5009,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.960323573302745</v>
+        <v>7.317870631485434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8760742717990724</v>
+        <v>0.3995513019836897</v>
       </c>
     </row>
     <row r="8">
@@ -5399,49 +5022,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2206.514977167411</v>
+        <v>-17.41065711923395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4013250044106379</v>
+        <v>0.4983139810860221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2697.457776689213</v>
+        <v>47.90897852703841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3247284312242299</v>
+        <v>0.1685370246342529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5623.560151997845</v>
+        <v>38.91702585249085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1223137678960936</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.56192896920649</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2312242108020193</v>
+        <v>0.04341558859827707</v>
       </c>
     </row>
   </sheetData>
@@ -5455,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5487,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2131.467861112711</v>
+        <v>1721.666164224116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2564957821988383</v>
+        <v>0.3388348700726274</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.44978991763674</v>
+        <v>60.49605311914297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.416943338153461</v>
+        <v>0.5189616588127117</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.4585024743511</v>
+        <v>132.3614038855924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09002309217440127</v>
+        <v>0.09752830666011135</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07754957531902401</v>
+        <v>3.391039939554293</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4998868672379437</v>
+        <v>0.7445649435408647</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003130747286982872</v>
+        <v>-290.2579146473329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1745945286605744</v>
+        <v>0.2001757898332172</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5162,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.516438456641566</v>
+        <v>8.548907259580879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6579211283389039</v>
+        <v>0.3618776103082064</v>
       </c>
     </row>
     <row r="8">
@@ -5565,49 +5175,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-196.7499358743216</v>
+        <v>-4.589423430760789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9428910229357259</v>
+        <v>0.8662373139162683</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1725.980751286135</v>
+        <v>26.04923513894158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3478404838440965</v>
+        <v>0.5402362017829392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3753.861834148749</v>
+        <v>25.3513502548038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4014568005673026</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>29.50944664626823</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2442763876566116</v>
+        <v>0.3033006546868739</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5653,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1300.431050675128</v>
+        <v>543.3573859291519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3501481082525604</v>
+        <v>0.7172320583203901</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.310270438365</v>
+        <v>131.9048565860093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02590089377773124</v>
+        <v>0.1062600011794388</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.1366779263822</v>
+        <v>128.6437761401507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.022933703940087</v>
+        <v>0.05019030855398932</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.108154344004697</v>
+        <v>-2.623087543908476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2483841950752543</v>
+        <v>0.7264107528294985</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001828390802997591</v>
+        <v>-136.2077404288983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1400513820427126</v>
+        <v>0.3110026177762671</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5315,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.055881256971482</v>
+        <v>7.691447757835491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7937893703557792</v>
+        <v>0.367255783958401</v>
       </c>
     </row>
     <row r="8">
@@ -5731,49 +5328,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2984.610046785629</v>
+        <v>23.80107522207524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2266603115789697</v>
+        <v>0.3840898143862963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2898.601027448255</v>
+        <v>27.9993270652439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04932104662961991</v>
+        <v>0.414090396172218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4245.690892569253</v>
+        <v>37.79112892842875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1817318595056953</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>34.34822665580482</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01631680795312003</v>
+        <v>0.01734270739070269</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5819,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>895.578549405885</v>
+        <v>415.4637994189425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5736741898955461</v>
+        <v>0.7501143781089867</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.0888077238314</v>
+        <v>186.7024710263147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0285761431244917</v>
+        <v>0.02691729453000881</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.3019429454596</v>
+        <v>106.554300019955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07982159351504949</v>
+        <v>0.06546152477665673</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0767328982812375</v>
+        <v>-10.71093826244885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3526979108113192</v>
+        <v>0.08912381483688445</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.807449218951765e-05</v>
+        <v>-22.29530503509807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7450719429921676</v>
+        <v>0.8401064980177942</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5468,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4114814350955704</v>
+        <v>2.049525743312028</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9608176726887508</v>
+        <v>0.7695437042517602</v>
       </c>
     </row>
     <row r="8">
@@ -5897,49 +5481,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1987.75008038798</v>
+        <v>-19.28234792218395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3547848385436865</v>
+        <v>0.3547951254565735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-806.3438348531708</v>
+        <v>65.40837119663627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5709157740254573</v>
+        <v>0.08015840492103514</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6773.229237037591</v>
+        <v>57.61597691809385</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08136453025782892</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>56.45988571394679</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002096529989632531</v>
+        <v>0.001189717570053081</v>
       </c>
     </row>
   </sheetData>
@@ -5953,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5985,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1050.745106442966</v>
+        <v>994.5433797205587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4915522662476279</v>
+        <v>0.4587596563274271</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.87751376177948</v>
+        <v>15.14059807350679</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8577153193923794</v>
+        <v>0.8695224908724535</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.2117505864706</v>
+        <v>24.52396771416562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7525198277431824</v>
+        <v>0.7411501456949779</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0162518147799563</v>
+        <v>-2.184757358740193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8710613082582697</v>
+        <v>0.7750967178034848</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002419357000652466</v>
+        <v>-244.4248062464214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1615863439036643</v>
+        <v>0.1360074009227895</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +5621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.05426974210543</v>
+        <v>11.61205112661601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2786413967578341</v>
+        <v>0.1421504232675631</v>
       </c>
     </row>
     <row r="8">
@@ -6063,49 +5634,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1039.87934038775</v>
+        <v>10.16668755594409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6892472511230638</v>
+        <v>0.682245123359379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-173.4839114329498</v>
+        <v>44.42113459533985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9265659907038867</v>
+        <v>0.1994964366735361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4474.741025164865</v>
+        <v>39.0474831710575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2173212445600892</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>38.59411373711521</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03015763677934861</v>
+        <v>0.01756805273152221</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6151,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4584.765738282356</v>
+        <v>3903.703903116313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03439140033514361</v>
+        <v>0.04772068785418332</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.26572538394208</v>
+        <v>59.5845818743436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4005179865545671</v>
+        <v>0.4839880683859572</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.71375239887254</v>
+        <v>61.11281664573795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4099631497175471</v>
+        <v>0.363456304616249</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1225557891333137</v>
+        <v>-16.27270899952537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1953932257828459</v>
+        <v>0.06031343358443408</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002033097491016072</v>
+        <v>-172.6379788863583</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1326009931145699</v>
+        <v>0.1797055783824069</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +5774,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.675500699639827</v>
+        <v>2.297880728959953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8481076782568832</v>
+        <v>0.764423356259268</v>
       </c>
     </row>
     <row r="8">
@@ -6229,49 +5787,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>634.2803857151703</v>
+        <v>7.43290231496286</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7803820596009849</v>
+        <v>0.7427590128030772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1427.729193392512</v>
+        <v>-29.87860302750113</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3497882275305646</v>
+        <v>0.4778515023799916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2018.717056662637</v>
+        <v>31.20600101324814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6406801899257237</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>31.30019722942363</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04050454195120498</v>
+        <v>0.03911615219005749</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6317,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>647.2374544963659</v>
+        <v>668.3877413829941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5749600959386127</v>
+        <v>0.5094545589744461</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>230.1139294156232</v>
+        <v>230.1211215226274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002021362837428421</v>
+        <v>0.001238746008939195</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.8491647099571</v>
+        <v>135.7086473649529</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007799205187865309</v>
+        <v>0.005324534756644587</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1199584505773323</v>
+        <v>-11.73670776346172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1399587074665495</v>
+        <v>0.03552696182340329</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.851682468473144e-05</v>
+        <v>26.61693836541662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7687909555693875</v>
+        <v>0.7511831587031815</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +5927,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.089982286426377</v>
+        <v>-2.181623289320804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7407294923551486</v>
+        <v>0.7035280507618304</v>
       </c>
     </row>
     <row r="8">
@@ -6395,49 +5940,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2540.955572161118</v>
+        <v>-25.23945150230946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1538140776565142</v>
+        <v>0.1295172614837856</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.84531545037544</v>
+        <v>76.96148931470691</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9631556164577828</v>
+        <v>0.01455376058728853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7679.612746433424</v>
+        <v>55.01240154373829</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02048257428956342</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>55.08736950277336</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002874326786307576</v>
+        <v>0.0001358152659862901</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6483,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.1455425808836</v>
+        <v>904.2896465940157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8458258717131967</v>
+        <v>0.5924707731269792</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-84.00846445159664</v>
+        <v>-27.29778786128691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6391135906948145</v>
+        <v>0.8228194719446962</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.02977813152177</v>
+        <v>48.52426769344606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8207957764720168</v>
+        <v>0.6072000348027393</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1061337528340479</v>
+        <v>-6.724576085840464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3720313554853667</v>
+        <v>0.3826756351899679</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001980627949785434</v>
+        <v>-180.5472814753466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2112809845689908</v>
+        <v>0.2198866454778517</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.36219538384157</v>
+        <v>9.739209142941696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2992188592546153</v>
+        <v>0.2618991160364929</v>
       </c>
     </row>
     <row r="8">
@@ -6561,49 +6093,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-237.0844408683865</v>
+        <v>-4.106777853950753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9269565183045678</v>
+        <v>0.8678572088736984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1192.849153833991</v>
+        <v>49.30485361543167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6537245694441627</v>
+        <v>0.2102231037911839</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4674.95818725214</v>
+        <v>52.38698963276043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2549792937163828</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>54.49496985973504</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01147839520675031</v>
+        <v>0.008952090913269746</v>
       </c>
     </row>
   </sheetData>
@@ -6617,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6649,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1864.019790810858</v>
+        <v>1321.383542824513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3153960192035639</v>
+        <v>0.436224854736044</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.5085813205477</v>
+        <v>125.7278630946125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1274679848176438</v>
+        <v>0.1625068277885064</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.94318609329687</v>
+        <v>99.48134644192601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2358693632913188</v>
+        <v>0.2031082709017766</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02108044405277754</v>
+        <v>-5.883274565471966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8298103641141178</v>
+        <v>0.4976504301003528</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001353106727964849</v>
+        <v>-94.04287174913489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3999911051379823</v>
+        <v>0.5302406886336436</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6233,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.442780522587785</v>
+        <v>5.989106022555793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7413128756865104</v>
+        <v>0.5453510299909969</v>
       </c>
     </row>
     <row r="8">
@@ -6727,49 +6246,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-270.0334251870036</v>
+        <v>-7.744467332342978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9281401667610528</v>
+        <v>0.7895417702882719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1448.502018476256</v>
+        <v>28.02808041906292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4090819001144521</v>
+        <v>0.4970374123765575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3117.965677155422</v>
+        <v>40.83792970091294</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4584414783473568</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>41.15949652595708</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05152209671295516</v>
+        <v>0.04930098258588824</v>
       </c>
     </row>
   </sheetData>
@@ -6783,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6815,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.600644488486</v>
+        <v>945.4788665840128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2319073321408993</v>
+        <v>0.5434235081643704</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.2427489121322</v>
+        <v>140.6141491738651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06651708657717181</v>
+        <v>0.1205462106426488</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.0275504956517</v>
+        <v>114.8636164984356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08682319880282854</v>
+        <v>0.1057243591288544</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02649440904205408</v>
+        <v>-6.050054517669846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7609289774934014</v>
+        <v>0.4060664990864592</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001857965661230647</v>
+        <v>-129.1095139695099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2118535082141995</v>
+        <v>0.3894206324935023</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.006552267757407</v>
+        <v>6.266790676086913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9042670152153438</v>
+        <v>0.4474666494843201</v>
       </c>
     </row>
     <row r="8">
@@ -6893,49 +6399,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1264.991345136326</v>
+        <v>9.848246643113782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6294013232564979</v>
+        <v>0.7218257757665211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2368.389755156977</v>
+        <v>40.98748397371943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1287182187295789</v>
+        <v>0.2726909562260313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5098.812977310761</v>
+        <v>35.37377535111253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1623474381998631</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>32.03652092039812</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04185056885363585</v>
+        <v>0.0324713512321072</v>
       </c>
     </row>
   </sheetData>
@@ -6949,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6981,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4931.806389328902</v>
+        <v>3920.220291470664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009547430916575674</v>
+        <v>0.03062797958898372</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.89152884499487</v>
+        <v>45.4373448447642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4669405325645871</v>
+        <v>0.5801395177879598</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.23673220888031</v>
+        <v>66.53693366459945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3314894789121757</v>
+        <v>0.3105406751278275</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08250278603654917</v>
+        <v>-16.62245725983277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3612703403336548</v>
+        <v>0.05514369347902676</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001473629478904169</v>
+        <v>-148.7248318608032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2909761714788271</v>
+        <v>0.3207373727694007</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +6539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.208639129575836</v>
+        <v>3.024802937089614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.771997458815969</v>
+        <v>0.6890945213374671</v>
       </c>
     </row>
     <row r="8">
@@ -7059,49 +6552,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1223.352800512064</v>
+        <v>0.5346400987803008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5993373848028718</v>
+        <v>0.9819820770567778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2541.75657567184</v>
+        <v>-13.2469444324102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1007264776521152</v>
+        <v>0.733474978697284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>876.9703155008028</v>
+        <v>23.20215282452394</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8184123922169915</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>21.8942574192224</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.148435504225986</v>
+        <v>0.1530543734204661</v>
       </c>
     </row>
   </sheetData>
@@ -7115,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7147,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.71972431199</v>
+        <v>672.6975612869755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4459383997833363</v>
+        <v>0.6921223989736062</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.7521577591592</v>
+        <v>90.86342732323385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1964646522043922</v>
+        <v>0.3046791352250292</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.912486957626</v>
+        <v>131.3309762337594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06031057629893993</v>
+        <v>0.0699148017904215</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08300986568656166</v>
+        <v>-0.381895408188953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.466449806848193</v>
+        <v>0.967452404109679</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001716632002392411</v>
+        <v>-107.4632864754317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2489561586223973</v>
+        <v>0.4475420082688665</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +6692,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.864342003984113</v>
+        <v>7.007356430181233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7320483994194016</v>
+        <v>0.3858204138684732</v>
       </c>
     </row>
     <row r="8">
@@ -7225,49 +6705,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>404.6818240107714</v>
+        <v>-2.592725143224143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8784906536189748</v>
+        <v>0.9227984659842274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2294.90828375883</v>
+        <v>20.94798077021554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2084223403212215</v>
+        <v>0.5839636041270032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2916.568334306059</v>
+        <v>48.45511745896397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4421719659637987</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>49.37381584491509</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02294553382263927</v>
+        <v>0.02726717449529367</v>
       </c>
     </row>
   </sheetData>
@@ -7281,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7313,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.2090093644183</v>
+        <v>-299.2419816413149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9195263159870266</v>
+        <v>0.8342859903473954</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.1554877618833</v>
+        <v>186.4683538271931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02282431876943884</v>
+        <v>0.02062031496593734</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.5311268325403</v>
+        <v>115.699842854819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06367027891229417</v>
+        <v>0.06094391391251978</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07981536086369534</v>
+        <v>-11.24608015596625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.325633873647823</v>
+        <v>0.07733145302670089</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.579171159183865e-05</v>
+        <v>4.742755368862163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8929841067913393</v>
+        <v>0.9656110512529574</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +6845,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.158039911820566</v>
+        <v>5.367430278159475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.832732610232271</v>
+        <v>0.5394399441389667</v>
       </c>
     </row>
     <row r="8">
@@ -7391,49 +6858,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1705.671417878226</v>
+        <v>-16.50383448929458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.423579113599612</v>
+        <v>0.4257025054506958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-871.656520766327</v>
+        <v>67.51584811320481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5240401015339423</v>
+        <v>0.09026968070418204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7584.180093536881</v>
+        <v>59.99330834820486</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08195381581534113</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>59.29532601359283</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002094304476392159</v>
+        <v>0.001335816080600848</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7479,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2267.999938198815</v>
+        <v>1414.533027169331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2384868055125741</v>
+        <v>0.3712982471992743</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.7257543412198</v>
+        <v>138.0684186120989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1145372406731003</v>
+        <v>0.146221221339584</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.26988690652342</v>
+        <v>101.3339748721022</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2256617788915481</v>
+        <v>0.1705214835916111</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02133854088411818</v>
+        <v>-5.679311325892197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8323701949542107</v>
+        <v>0.5342965182254689</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002407696046707838</v>
+        <v>-237.9340790893882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2361476270372057</v>
+        <v>0.235331301357376</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +6998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.437753919978086</v>
+        <v>8.996358883830862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7658706800072581</v>
+        <v>0.3464779109301157</v>
       </c>
     </row>
     <row r="8">
@@ -7557,49 +7011,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022.87804300221</v>
+        <v>25.56365986178477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5684985580800841</v>
+        <v>0.460695650137445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1549.409205184033</v>
+        <v>13.08326300179637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4018649819451654</v>
+        <v>0.7523394614713849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2226.731922850639</v>
+        <v>31.87863256686514</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6083603504734749</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>33.87172281458467</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07985593069509986</v>
+        <v>0.08973178382153849</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7645,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2525.627354123616</v>
+        <v>1394.463755307647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.134522653038259</v>
+        <v>0.2843395558227451</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.34038644751968</v>
+        <v>-25.42950392726993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6785745634797562</v>
+        <v>0.7941572449309248</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.12336125294883</v>
+        <v>-8.757668621815014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6499709326172958</v>
+        <v>0.9051706634222842</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02398934662774786</v>
+        <v>-5.54247905271251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7949505756355632</v>
+        <v>0.3673466580738972</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001244201112017283</v>
+        <v>-162.4476153136177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3143421319202557</v>
+        <v>0.1822928000968587</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.485015850359758</v>
+        <v>11.19229737005963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6107347786009805</v>
+        <v>0.1041506767605895</v>
       </c>
     </row>
     <row r="8">
@@ -7723,49 +7164,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1818.498657472991</v>
+        <v>-12.32953057048596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.416750023307753</v>
+        <v>0.5724127892104829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2505.466641605473</v>
+        <v>56.87578973281255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2700538052899401</v>
+        <v>0.07449044427271241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6165.456511335925</v>
+        <v>40.60185515396965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05674638927778838</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>31.72936031085035</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05610923555992316</v>
+        <v>0.00831865046439525</v>
       </c>
     </row>
   </sheetData>
@@ -7779,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7811,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1908.842022232167</v>
+        <v>1682.283064388888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3710573170078224</v>
+        <v>0.4081616937640933</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.9008270819379</v>
+        <v>125.6860474332206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09767058118285572</v>
+        <v>0.09957009371421618</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.7309521728532</v>
+        <v>104.6257216903687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07441038318430669</v>
+        <v>0.07067385479752114</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1121634798595207</v>
+        <v>-14.07991685773601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1808453661781044</v>
+        <v>0.03843683135837522</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.129849460113758e-05</v>
+        <v>-38.6740287296974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6512742207380569</v>
+        <v>0.7208541046845434</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7304,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.124891769713813</v>
+        <v>0.5571893480102119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8923694521436292</v>
+        <v>0.9414782185852125</v>
       </c>
     </row>
     <row r="8">
@@ -7889,49 +7317,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1414.399850159944</v>
+        <v>-13.6873095861136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4778546151698095</v>
+        <v>0.479659217343827</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-712.0411433533611</v>
+        <v>28.21860580231134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5615721285987666</v>
+        <v>0.5380831083028945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3533.479552328143</v>
+        <v>52.39907517059089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4693756118142931</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>51.91930976988971</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.005731489129170138</v>
+        <v>0.004088229315014117</v>
       </c>
     </row>
   </sheetData>
@@ -7945,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7977,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3909.556940543347</v>
+        <v>3763.065514845624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03260161267401872</v>
+        <v>0.02876176682630496</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.30218413568173</v>
+        <v>94.14388470405981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2244175906627046</v>
+        <v>0.2262289884473325</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.1010940091073</v>
+        <v>127.12335360635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0814691520547421</v>
+        <v>0.06902409861252928</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1377067328096693</v>
+        <v>-15.97773716647081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1264271060346297</v>
+        <v>0.02606083873531267</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.007398415386612e-05</v>
+        <v>-79.30308446835198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4498255879526515</v>
+        <v>0.4792626776547021</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +7457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.686241537467851</v>
+        <v>-3.887928028526957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5447728899872741</v>
+        <v>0.5904594422111028</v>
       </c>
     </row>
     <row r="8">
@@ -8055,49 +7470,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-578.5432227365336</v>
+        <v>-6.450575009848805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7774144633648705</v>
+        <v>0.7436499080066417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-551.8803808388407</v>
+        <v>3.703932772884713</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6789188985742923</v>
+        <v>0.9196797606615479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>616.7555477817878</v>
+        <v>28.65405929576806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8726687401757131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>28.42102053831578</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05613560898140632</v>
+        <v>0.04618209701516524</v>
       </c>
     </row>
   </sheetData>
@@ -8111,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8143,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3018.861618464221</v>
+        <v>1688.887639148374</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1463838599446362</v>
+        <v>0.2938294496894476</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.0452590110933</v>
+        <v>37.62381485075002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4321800436431996</v>
+        <v>0.8033031698386068</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.1780861594974</v>
+        <v>46.36591728000303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3683039949150965</v>
+        <v>0.6628475415224737</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007800904291752897</v>
+        <v>-8.760550253114923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9941063331889129</v>
+        <v>0.2165013515855073</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.600079412858413e-05</v>
+        <v>-119.488198188362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7423242821975207</v>
+        <v>0.4633018201308088</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +7610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.950619191457648</v>
+        <v>6.372301204827174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8631236490306782</v>
+        <v>0.4553475910172434</v>
       </c>
     </row>
     <row r="8">
@@ -8221,49 +7623,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2820.501974914316</v>
+        <v>-18.96054812554671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3677365998032993</v>
+        <v>0.5279254083471044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2848.849879572402</v>
+        <v>51.10464262161004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2870682389308334</v>
+        <v>0.1700849224604639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5520.970726839882</v>
+        <v>43.62671128842139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1414072987700729</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>32.40206550157225</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1236365295176341</v>
+        <v>0.02347613361718825</v>
       </c>
     </row>
   </sheetData>
@@ -8277,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8309,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3617.555528963567</v>
+        <v>2888.441489255081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1031081663061754</v>
+        <v>0.1265560076496328</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.3617863132207</v>
+        <v>81.03622411648132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3511028528568465</v>
+        <v>0.3119099364414131</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.95341794287816</v>
+        <v>98.79695846167961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1044747995107942</v>
+        <v>0.08045884024053736</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1399398457745384</v>
+        <v>-17.04636431536749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09893405613137633</v>
+        <v>0.02244721497571309</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001132082350907221</v>
+        <v>-73.47090138113163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3836430053833434</v>
+        <v>0.520842001934277</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +7763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.705190993550644</v>
+        <v>0.4342581018046232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7637982651431059</v>
+        <v>0.9553500451666463</v>
       </c>
     </row>
     <row r="8">
@@ -8387,49 +7776,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1059.141259674007</v>
+        <v>-9.949285176867221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5860562108126944</v>
+        <v>0.6009430421310571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1051.237209591758</v>
+        <v>-16.2505001226736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4659576510161463</v>
+        <v>0.6158858399467178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-984.2674289142051</v>
+        <v>46.9808638621591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7726226699807313</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>44.81664760705966</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00838212809706212</v>
+        <v>0.00441769220265655</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8475,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1772.003858319448</v>
+        <v>1147.51268899952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3250278154171355</v>
+        <v>0.4812797953378809</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.3201426210641</v>
+        <v>137.6897458152728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1198061701777694</v>
+        <v>0.152887528673677</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.52311229196147</v>
+        <v>98.74912538785128</v>
       </c>
       <c r="C4" t="n">
-        <v>0.214953810680056</v>
+        <v>0.2098915518250374</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03819043096475294</v>
+        <v>-9.309664440137549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7071389669780197</v>
+        <v>0.2620049672616953</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001109784900353963</v>
+        <v>-79.87115086950786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4452339639162213</v>
+        <v>0.5666716247708614</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +7916,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.4122146112617</v>
+        <v>7.301688623366033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7463173744605189</v>
+        <v>0.4499130106333673</v>
       </c>
     </row>
     <row r="8">
@@ -8553,49 +7929,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161.1386915323383</v>
+        <v>1.502713287319537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9527442395990007</v>
+        <v>0.955626934593983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1510.208995083494</v>
+        <v>31.66747501912845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3704757469665417</v>
+        <v>0.4492291124697627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3913.914153014428</v>
+        <v>36.91295820147934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3651311012995643</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>36.59771415809016</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04742098590883848</v>
+        <v>0.04324287113273104</v>
       </c>
     </row>
   </sheetData>
@@ -8609,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8641,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996.8572679663321</v>
+        <v>427.8650417388817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4792881139121059</v>
+        <v>0.7847956228021106</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.086760007428</v>
+        <v>148.6940465842717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01832955537552193</v>
+        <v>0.07709334327641816</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.7695698527168</v>
+        <v>111.1596107202851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05211640234571814</v>
+        <v>0.1007384062827713</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1344227798996179</v>
+        <v>-0.05882546528794563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1945907782525857</v>
+        <v>0.9947789572641753</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001937186531836042</v>
+        <v>-152.3313383797042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1852586108035124</v>
+        <v>0.347502991278871</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8069,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.716992763377831</v>
+        <v>11.26273448423434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4617526168913425</v>
+        <v>0.1889472071371915</v>
       </c>
     </row>
     <row r="8">
@@ -8719,49 +8082,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2420.490191422956</v>
+        <v>16.68552873204561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3000796187925768</v>
+        <v>0.5207805867160151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3101.258221654083</v>
+        <v>23.59899405842195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04478024568524358</v>
+        <v>0.5415415448904242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3148.756996294804</v>
+        <v>32.08692794753487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.360025868387383</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>37.11590929568582</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04386726628328599</v>
+        <v>0.1096391896161052</v>
       </c>
     </row>
   </sheetData>
